--- a/result/生词本导入模版_8.xlsx
+++ b/result/生词本导入模版_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sparse</t>
+          <t>soporific</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adj. 稀疏的，稀少的： less plentiful than what is normal, necessary, or desirable</t>
+          <t>n. 安眠药： a drug or other substance that induces sleep</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Many slopes are rock fields with sparse vegetation.  许多山坡都是不长植物的石坡。</t>
+          <t>Alcohol is a poor hypnotic because it disturbs sleep patterns, and so can worsen sleep disorders.  酒精是一种欠佳的安眠药，因为它会干扰睡眠的固定模式，从而恶化睡眠紊乱的情况。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>spartan</t>
+          <t>sordid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adj. 简朴的，节约的： marked by simplicity, frugality, or avoidance of luxury and comfort</t>
+          <t>adj. 肮脏的，不干净的： not clean
+adj. 卑鄙的： marked by baseness or grossness</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Accommodations on the windjammer are spartan but clean and comfortable nevertheless.   帆 船 上 的 装饰十分朴素，但还是很干净和舒适。</t>
+          <t>I will not let my children grow up in such a sordid environment.   我绝不会让我的孩子在这样一个肮脏的环境之中成长。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,339 +503,335 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>sound</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adj. 牢固的，不可动摇的： marked by the ability to withstand stress without structural damage ordistortion
+adj. 健康的，强壮的： free from injury or disease: exhibiting normal health
+adj. （逻辑上）严谨的： based on valid reasoning</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The bridge is structurally sound.   这座大桥在结构上是稳固的。
+The horse is getting old, but still perfectly sound.   虽然在变老，但这匹马依然相当健康。
+Sound reasoning alone should tell you that the result is invalid.   从纯粹严谨的逻辑演绎出发，这个结论是不正确的。</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sparse</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adj. 稀疏的，稀少的： less plentiful than what is normal, necessary, or desirable</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Many slopes are rock fields with sparse vegetation.  许多山坡都是不长植物的石坡。</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>spartan</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adj. 简朴的，节约的： marked by simplicity, frugality, or avoidance of luxury and comfort</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Accommodations on the windjammer are spartan but clean and comfortable nevertheless.   帆 船 上 的 装饰十分朴素，但还是很干净和舒适。</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>spat</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>n. （小的）争吵： a brief petty quarrel or angry outburst</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Like any couple, they have their spats.  像其他夫妻一样，他们也会有争执。
 They were typical sisters,spatting one minute, playing together the next.  她们是典型的姐妹：上一分钟还在吵架，下一分钟又玩在一起了。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>spate</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>n. 突发的洪水： sudden flood
 n. 大量： a large number or amount</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>a spate of books about GRE  很多关于 GRE  的书</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>specific</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>adj. 特有的，独特的： of a particular or exact sort
 adj. 明确的： so clearly expressed as to leave no doubt about the meaning</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>We need a specific type of pen to sign the diplomas.  我们需要一种特制的笔来签署学位证书。
 specific instructions regarding the interrogation of prisoners  有关如何审问犯人的明确指示</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>specious</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>adj. 似是而非的，欺骗性的： having a false look of truth or genuineness</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>a specious argument that really does not stand up under close examination  一段经不起仔细推敲的论证</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>speck</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>n. 小点，少量： a very small amount: bit</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>She writes without even a speck of humor.  她字里行间一点幽默感也没有。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>spectator</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>n. 观众，目击者，旁观者： one who looks on or watches</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>join the organization as temporary spectator  作为短期观察员加入该组织
 The accident attracted alarge crowd of spectators.   事故引来了大量的围观群众。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>spectrum</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>n. 范围，系列： a broad sequence or range of related qualities, ideas, or activities</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>the whole spectrum of 20th-century thought 20 世纪所有不同的思潮
 A political spectrum is a way ofmodeling different political positions by placing them upon one or more geometric axes symbolizing independentpolitical dimensions.   所谓的政治光谱是一种将不同的政治立场可视化的模型，它通过一根或者多根几何坐标轴来定位不同的政治态度。</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>speculate</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>vt. 推测，揣测： to take to be true on the basis of insufficient evidence
 vi. 投机倒卖： to buy or sell in expectation of profiting from market fluctuations</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>I speculate that someone has been using this cabin as a trysting place.   我猜测有情侣把这个小屋当做他们幽会的地方。
 speculating on the oil market  在石油市场上投机倒卖</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>spendthrift</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>n. 挥霍者，败家子： a person who spends improvidently or wastefully
 adj. 挥霍的，不节俭的： given to spending money freely or foolishly</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The spendthrift managed to blow all of his inheritance in a single year.  这个败家子只用了一年就把自己继承的遗产挥霍一空。
-Spendthrift consumers amassed a mountain of debt on their credit cards.   那些爱挥霍财富的消费者们在他们的信用卡上累积了一大笔债务。Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The spendthrift managed to blow all of his inheritance in a single year.  这个败家子只用了一年就把自己继承的遗产挥霍一空。
+Spendthrift consumers amassed a mountain of debt on their credit cards.   那些爱挥霍财富的消费者们在他们的信用卡上累积了一大笔债务。</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>spent</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>adj. 精疲力竭的： drained of energy or effectiveness</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>After all that exertion, we were completely spent.   在完成所有的锻炼之后我们已是筋疲力尽。</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>spindly</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>adj. 细长纤弱的： frail or flimsy in appearance or structure</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>I prefer having rather spindly legs.  我更希望有一双细腿。</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>spiny</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>adj. 多刺的： bearingspines, prickles, or thorns
 adj. 棘手的，麻烦的： requiring exceptional skill or caution in performance or handling</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>low spiny bushes of sage  低矮多刺的长满鼠尾草的灌木丛
 This promises to be a spiny problem to negotiate.   这有可能成为谈判过程中棘手的问题。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>spleen</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>n. 怒气，怨恨： feelings of anger or ill will often suppressed</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>She vented her spleen on her boyfriend and felt much better for having done so.   在她把怒气一股脑地倾泻到她男朋友身上之后，她感觉好多了。</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>splice</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>vt. 接合，叠接： to unite (as two ropes) by interweaving the strands, or to join (as two pieces of film)at the ends</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>He taught me to edit and splice film.   他教会我如何剪辑和叠合胶卷。</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>spontaneous</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>adj. 自发的，不经思索的： acting or activated without apparent thought or deliberation</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Hugging a crying child is simply a spontaneous reaction.  去抱一个哭泣的小孩是很自然而然的反应。</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -844,87 +841,87 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>spleen</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>n. 怒气，怨恨： feelings of anger or ill will often suppressed</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>She vented her spleen on her boyfriend and felt much better for having done so.   在她把怒气一股脑地倾泻到她男朋友身上之后，她感觉好多了。</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>splice</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>vt. 接合，叠接： to unite (as two ropes) by interweaving the strands, or to join (as two pieces of film)at the ends</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>He taught me to edit and splice film.   他教会我如何剪辑和叠合胶卷。</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>spontaneous</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>adj. 自发的，不经思索的： acting or activated without apparent thought or deliberation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Hugging a crying child is simply a spontaneous reaction.  去抱一个哭泣的小孩是很自然而然的反应。</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>spoof</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>n. 轻松幽默的模仿，小恶搞： a work that imitates and exaggerates another work for comic effect
 v. 诱骗，诱使相信： to cause to believe what is untrue</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Many viewers thought that the spoof of a television newscast was the real thing.   许多观众认为这则新闻报道被恶搞之后的作品才是真实的东西。
 The public was spoofed by a supposedly plausible report of a UFO encounter.  一个听起来真实的 UFO  遭遇报告欺骗了大众。</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>sporadic</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>adj. 偶尔的，零星发生的： not often occurring or repeated</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>On the whole, situation has significantly improved with only sporadic disturbances.   总体而言，局势得到了明显的改善，现在只有偶尔发生的骚乱。</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>sprawl</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>vt. 杂乱无序地发展： to grow, develop, or spread irregularly and without apparent design or plan</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>The city sprawls down the whole coast.   城市顺着整条海岸线蔓延。</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>sprightly</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>adj. 活泼的，充满活力的： full of spirit and vitality</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>He was deeply impressed by the sprightly Gypsy dance.  活力四射的吉普赛舞蹈给他留下了深刻印象。</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -934,344 +931,343 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>sporadic</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>adj. 偶尔的，零星发生的： not often occurring or repeated</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>On the whole, situation has significantly improved with only sporadic disturbances.   总体而言，局势得到了明显的改善，现在只有偶尔发生的骚乱。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sprawl</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>vt. 杂乱无序地发展： to grow, develop, or spread irregularly and without apparent design or plan</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The city sprawls down the whole coast.   城市顺着整条海岸线蔓延。</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sprightly</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>adj. 活泼的，充满活力的： full of spirit and vitality</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>He was deeply impressed by the sprightly Gypsy dance.  活力四射的吉普赛舞蹈给他留下了深刻印象。</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>spur</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>n. 刺激物： something that arouses action or activity
 n. 支撑物： a structure that holds up or serves as a foundation for something else
 vt. 刺激，激励： to incite or stimulate</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>The threat of losing its only sports franchise was the spur the city council needed to finally do somethingabout the rising crime rate.   有可能失去唯一的体育赛事举办权带来的威胁，成为了刺激市政府决定就攀升的犯罪率采取相关措施的因素。
 a weak wall that might need a spur  一面或许需要支撑的墙
 Appreciation spurred his ambition.  赞扬激起了他的雄心壮志。</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>spurious</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>adj. 假的，伪造的： lacking authenticity or validity in essence or origin; not genuine</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>In statistics, a spurious relationship is a mathematical relationship in which two events or variables have nodirect causal connection, but it may be wrongly inferred that they do, due to either coincidence or the presence ofa certain third, unseen factor.   在统计学中，“伪相关关系”是两个不存在因果关联的事件或变量，因为巧合或是不可见的第三方因素，而被误判为存在因果联系的关系。</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>spurn</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>vt. 摈弃，拒绝： to reject with disdain or contempt</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>spurned his recommendation  拒绝了他的推荐
 Fiercely independent, the elderly couple spurned alloffers of financial help.   这对老夫妻极其独立，回绝了所有经济上援助。</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>squabble</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>n. 口角，小争吵： a noisy quarrel, usually about a trivial matter</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>a brief squabble over what to do next  关于接下来该做什么的争吵</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>squalid</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>adj. 污秽的，肮脏的： dirty and wretched
-adj. 道德败坏的： morally repulsiveMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>The migrants have been living in squalid conditions.  移民们一直居住在肮脏的条件下。
-the squalid atmosphere of intrigue and betrayal  充满了阴谋与背叛的不正之风</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+adj. 道德败坏的： morally repulsive</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The migrants have been living in squalid conditions.  移民们一直居住在肮脏的条件下。</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>squall</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>n. （通常伴随着雨或雪的）风暴，暴风雪： a brief, sudden, violent windstorm, often accompaniedby rain or snow
 vt. 尖叫： to scream or cry loudly and harshly</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A snow squall is expected tonight.  今晚预计有暴风雪。
 The baby squalled in pain.   婴儿因为疼痛而大叫。</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>squander</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>vt. 使分散： to cause (members of a group) to move widely apart
 vt. 浪费： to spend wastefully or extravagantly</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>A single blast of the shotgun squandered the herd of deer.   猎枪的一声枪响让鹿群四处逃窜。
 He squandered his inheritance on women and gambling.  他把他继承的遗产浪费在女人和赌博上。</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>squat</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>adj. 又矮又胖的： being compact and broad in build and often short in stature</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>a squat but adroit craftsman  一个又胖又矮，但是手艺灵巧的工匠</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>squint</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>vt. 斜视，睥睨： to look or glance sideways</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>The driver squinted as the sun hit his windshield.   阳光使得驾驶员不得不把眼睛偏向一边</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>squelch</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>vt. 压制，镇压（运动）： to put a stop to (something) by the use of force
 vt. 击溃，使无言以对： to put down or silence, as with a crushing retort</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>The authority tried to squelch the workers’ protest.   政府试图镇压工人的游行。
 His irritated glare squelched any other potential objectors.   他怒目而视，使得其他的反对者都不敢说话。</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>stabilize</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>vt./vi. 使稳定；变得稳定： to make stable, steadfast, or firm; to become stable, steadfast, or fixed</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>a policy that intended to stabilize the situation in Iraq  一 项 旨 在 维 护 伊 拉 克 局 势 稳 定 的 政 策
 Thecountry's population has stabilized at 3.  2 million.   这个国家的人口维持在三百二十万。</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>stalwart</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>adj. 无所畏惧的： feeling or displaying no fear by temperament
 adj. （体魄等）强健的： marked by outstanding strength and vigor of body, mind, or spirit</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>the stalwart soldiers in the army of Alexander the Great, who willingly followed him to the ends of theknown world  亚历山大大帝军队中无所畏惧的士兵们，他们愿意跟随亚历山大奔赴世界的尽头
 a stalwart supporter of the UN  联合国的坚定支持者
 a lithe yet stalwart athlete  瘦小但结实的运动员</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>stamina</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>n. 耐力： physical or moral strength to resist or withstand illness, fatigue, or hardship</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A marathon challenges a runner's stamina.  马拉松挑战参赛者的耐力。</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>stammer</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>vi. 口吃，结巴： to speak with involuntary pauses or repetitions</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>The frightened child started to stammer.   受惊吓的小孩开始结巴地说话。</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>startle</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>vt. 使吓一跳，使大吃一惊： to frighten or surprise suddenly and usually not seriously</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>They were startled at the prohibitive price.  他们被高得离谱的价格吓到了</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1281,221 +1277,282 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>stamina</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n. 耐力： physical or moral strength to resist or withstand illness, fatigue, or hardship</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A marathon challenges a runner's stamina.  马拉松挑战参赛者的耐力。</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>stammer</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>vi. 口吃，结巴： to speak with involuntary pauses or repetitions</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>The frightened child started to stammer.   受惊吓的小孩开始结巴地说话。</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>startle</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>vt. 使吓一跳，使大吃一惊： to frighten or surprise suddenly and usually not seriously</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>They were startled at the prohibitive price.  他们被高得离谱的价格吓到了</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>static</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 静态的，停滞的： characterized by a lack of movement, animation, or progression
 adj. 无改变的： showing little change</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Both your pictures are of static subjects.   你的两张照片都是静物。
 a static economy  停滞不前的经济
 a static population  没有变化的人口</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>stature</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>n. 高度，身高： natural height (as of a person) in an upright position
 n. 才干，水平： quality or status gained by growth, development, or achievement</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>a man of surprisingly great stature  拥有惊人身高的人
 This club has grown in stature over the last 20 years.   二十年间这家俱乐部的水平得到了提升。</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>steadfast</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>adj. 坚定的，忠诚的： firm in belief, determination, or adherence</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Her comrades remained steadfast despite brutal tortures.   尽管有残酷的折磨，她的同志们都保持了忠诚。</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>stealth</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>n. 秘密行动： the act or action of proceeding furtively, secretly, or imperceptibly
 adj. 秘密的： intended not to attract attention</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">Both sides advanced by stealth.   双方都隐秘地行军。
 The SWAT team carried out a stealth raid on the house, which was believed to be harboring a terrorist cell.  </t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>steep</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>vt. 浸泡： to make thoroughly wet
 adj. 陡峭的： having an incline approaching the perpendicular</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>steep the tea for five minutes  浸泡茶叶五分钟
 a very steep rock face that is nearly impossible to climb  一面非常陡峭以至于不可能攀爬的岩石</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>stench</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>n. 臭气，恶臭： a strong, foul odor</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>We finally discovered the dead rat that was causing the stench in the living room.   我们终于发现是死老鼠带来了卧室里的恶臭。</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>stentorian</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>adj. 声音洪亮的： extremely loud</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>an tenor with a stentorian voice  拥有洪亮声音的男高音
 The professor's stentorian voice was enough tokeep even the drowsiest student awake.   教授洪亮的声音足以使最困的学生保持清醒。</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>sterile</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>adj. 贫瘠的： not productive or effective
 adj. 无菌的： free from live bacteria or other microorganisms</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>a sterile land which used to be a forest  曾经是森林的一块贫瘠土地
 The hospitals in the war-torn city often lack necessary drugs and sterile surgical supplies.   在 这 个 被 战争所蹂躏的城市中的医院通常缺乏必需的药物和无菌的手术用品。</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>stickler</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>n. 坚持细节的人，一丝不苟的人： one who insists on exactness or completeness in the observanceMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.of something</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>a stickler for perfection  完美主义者
-a stickler for neatness  有洁癖的人</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>n. 坚持细节的人，一丝不苟的人： one who insists on exactness or completeness in the observance</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>stiff</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>adj. 僵硬的，无法弯曲的： lacking in suppleness or flexibility
 adj. （在社交场合）缺乏优雅的，不自在的： lacking social grace and assurance
@@ -1503,7 +1560,7 @@
 adj. 艰苦的，费力的： requiring considerable physical or mental effort</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>a stiff cardboard packing box  不易弯折的硬纸板盒
 When I got out of bed this morning my back wasstiff as a board.   今早起床时我的背和木板一样僵硬。
@@ -1512,117 +1569,51 @@
 We'll have a stiff climb to actually reach the summit.  我们还有一段艰苦的征途才能登顶。</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>stifle</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>vt. 抑制（声音、呼吸等）： to keep in or hold back</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>to stifle free expression  限制言论自由</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>stigma</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>n. 耻辱，污名： a mark of shame or discredit</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">the stigma of cowardice  由懦弱而带来的污点
 There's a social stigma attached to receiving welfare.  </t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>stint</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>vi. 吝惜，节省： to be sparing or frugal</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>They never stint with their praise.  他们从不吝啬他们的赞美之词。</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>stipple</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>vt. 点刻，用点标记： to mark with small spots especially unevenly</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>They crossed a field stippled with purple lavender.   他们穿越了一片有紫色薰衣草点缀的田野。</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>stipulate</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>vt. 规定，特定要求： to specify or arrange in an agreement</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Total disarmament was stipulated in the peace treaty.   和平协约中要求彻底解除武装。</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1632,17 +1623,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>stint</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>n. 突然剧痛： a sharp unpleasant sensation usually felt in some specific part of the body</t>
+          <t>vi. 吝惜，节省： to be sparing or frugal</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>He had to drop out of the race when the stitch in his side became too painful.   因为他突然感到剧痛，所以不得不放弃比赛。</t>
+          <t>They never stint with their praise.  他们从不吝啬他们的赞美之词。</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1654,19 +1645,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>stingy</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>n. 库存，储备： the inventory of goods of a merchant or manufacturerMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.
-adj. 普通的，常备的： commonly used or brought forward</t>
+          <t>adj. 小气的，吝啬的： being unwilling or showing unwillingness to share with others
+adj. 极少量的： less plentiful than what is normal, necessary, or desirable</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>This type of product is currently out of stock.   这种商品已经脱销。
-the stock answers to sensitive questions  对于敏感问题的常备回答</t>
+          <t>too stingy to tip the waiter  小气到不肯给小费
+Many people may consider this a rather stingy amount of food.   很多人都会认为这是分量比较少的食物。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1678,151 +1669,151 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>stipple</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>vt. 点刻，用点标记： to mark with small spots especially unevenly</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>They crossed a field stippled with purple lavender.   他们穿越了一片有紫色薰衣草点缀的田野。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>stipulate</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>vt. 规定，特定要求： to specify or arrange in an agreement</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Total disarmament was stipulated in the peace treaty.   和平协约中要求彻底解除武装。</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>stitch</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>n. 突然剧痛： a sharp unpleasant sensation usually felt in some specific part of the body</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>He had to drop out of the race when the stitch in his side became too painful.   因为他突然感到剧痛，所以不得不放弃比赛。</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>n. 库存，储备： the inventory of goods of a merchant or manufacturer</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>stockade</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>n. 栅栏，围栏： an enclosure or pen made with posts and stakes
 n. 监狱： a place of confinement for persons held in lawful custody</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>a heavy stockade that protected the troops  保护驻扎部队的厚厚的栅栏
 All POWs were kept in a remote stockade.  所有的战俘都被关在一个遥远的监狱里。</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>stodgy</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>adj. 平庸的，乏味的： dull, unimaginative, and commonplace</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">The sitcom was offbeat and interesting in its first season, but has since become predictable and stodgy.  </t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>stoke</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>vt. 添加燃料： supply with fuel
 vt. 增大，促进： to make greater in size, amount, or number</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>She was stoking the furnace.  她正用给火炉添木头。
 stoke workers’ commitment to the company by raising their salaries  通过加薪来提升员工对公司的忠诚度</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>stoic</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>adj. 隐忍的，冷静的： seemingly indifferent to or unaffected by pleasure or pain</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>stoic resignation in the face of hunger  默默忍受着饥饿</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>stolid</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>adj. 无动于衷的，感情麻木的： having or revealing little emotion or sensibility</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>stomach</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>v. 容忍： to bear without overt reaction or resentment</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>I can't stomach his bragging.  我受不了他自吹自擂了。</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>stonewall</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>v. 拒绝（合作），阻挠： to be uncooperative, obstructive, or evasive</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>lobbying efforts to stonewall passage of the legislation  意在阻止法律通过的游说行动</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1832,17 +1823,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>stouthearted</t>
+          <t>stoic</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 勇敢的： having a stout heart or spirit</t>
+          <t>adj. 隐忍的，冷静的： seemingly indifferent to or unaffected by pleasure or pain</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>a stouthearted army officer who risked his life to save his men  为了拯救部下宁愿牺牲自己的勇敢军官</t>
+          <t>stoic resignation in the face of hunger  默默忍受着饥饿</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1854,19 +1845,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>stratagem</t>
+          <t>stolid</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>n. 谋略，策略： an artifice or trick in war for deceiving and outwitting the enemy</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>a stratagem to secure customer loyalty  用来稳固客户忠诚度的计谋</t>
-        </is>
-      </c>
+          <t>adj. 无动于衷的，感情麻木的： having or revealing little emotion or sensibility</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1876,203 +1863,203 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>stomach</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>v. 容忍： to bear without overt reaction or resentment</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>I can't stomach his bragging.  我受不了他自吹自擂了。</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>stonewall</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>v. 拒绝（合作），阻挠： to be uncooperative, obstructive, or evasive</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>lobbying efforts to stonewall passage of the legislation  意在阻止法律通过的游说行动</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>stouthearted</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adj. 勇敢的： having a stout heart or spirit</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>a stouthearted army officer who risked his life to save his men  为了拯救部下宁愿牺牲自己的勇敢军官</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>stratagem</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>n. 谋略，策略： an artifice or trick in war for deceiving and outwitting the enemy</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>a stratagem to secure customer loyalty  用来稳固客户忠诚度的计谋</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>strait</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>n. 海峡： a narrow channel joining two larger bodies of water
 n. 痛苦： a state of great suffering of body or mind</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Thousands of vessels pass through the straits annually.  每年数以千计的货轮要通过这个海峡。
 in dire straits over the loss of her mother’s cherished necklace  因为丢失了母亲最珍贵的项链而陷入了极端的痛苦之中</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>strand</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>n. 绳、线之一股： a single filament, such as a fiber or thread, of a woven or braided material
 v. 遗弃，使置于困境： to leave in a strange or an unfavorable place especially without funds ormeans to depart</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>a strand of DNADNA  中的一条链
 The convoy was stranded in the desert.   车队被困在了沙漠之中。</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>stratify</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>vt. 使分成各种等级： to divide into classes, castes, or social strata</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Income distribution often stratifies a society.   收入分配往往将社会分层</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>stray</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>adj. 漫无目的的： lacking a definite plan, purpose, or pattern
 vi. 离群，迷途，偏离： to move away from a group, deviate from the correct course, or go beyondestablished limits</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>No stray sighting of UFO’s has been rigorously analyzed by scientists.   在无规律出现的 UFO  事件之中，尚未有被科学家严谨分析的案例。
 to stray from the main road  偏离了主干道</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>strength</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>n. 力量： the ability to exert effort for the accomplishment of a task
 n. （抵抗攻击、压力的）强度： the ability to withstand force or stress without being distorted,dislodged, or damaged</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>We are facing an army of great strength.   我们面对的是一支强大的军队。
 This cheap shelve unit doesn't have the strength to hold all those books.   这个廉价的书架不足以支撑所有的书本。</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>striate</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>vt. 加条纹： to mark with striations or striae</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>The inner surface of the bark is smooth, of a pale, yellowish brown and very finely striated.   树 皮 的 内 部十分光滑，显着偏暗偏黄的棕色，并且有着十分精细的条纹。</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>stricture</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>n. 责难，批评： an adverse criticism</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>The reviewer made several strictures upon the author's style.  评论家就作者的文风发出了不少责难。</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>stride</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>vi. 迈大步走： to move with or as if with long steps</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>strode to the door and slammed it  大步走向门口，狠狠地把门摔上</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>strident</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>adj. 刺耳的： characterized by harsh, insistent, and discordant sound</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>plagued by the strident noise  被刺耳的噪声所折磨</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2082,10 +2069,98 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>striate</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>vt. 加条纹： to mark with striations or striae</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The inner surface of the bark is smooth, of a pale, yellowish brown and very finely striated.   树 皮 的 内 部十分光滑，显着偏暗偏黄的棕色，并且有着十分精细的条纹。</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>stricture</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>n. 责难，批评： an adverse criticism</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>The reviewer made several strictures upon the author's style.  评论家就作者的文风发出了不少责难。</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>stride</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>vi. 迈大步走： to move with or as if with long steps</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>strode to the door and slammed it  大步走向门口，狠狠地把门摔上</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>strident</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>adj. 刺耳的： characterized by harsh, insistent, and discordant sound</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>plagued by the strident noise  被刺耳的噪声所折磨</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>n. 攻击： the act or action of setting upon with force or violence
 vt. 铸造（奖牌）： to form by stamping, printing, or punching
@@ -2094,168 +2169,80 @@
 vt. 撞击： to come into usually forceful contact with something</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The first strike was directed at a munitions warehouse.   第一轮攻击的目标是军火仓库。
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>The first strike was directed at a munitions warehouse.   第一轮攻击的目标是军火仓库。
 angrily stuck the security guard  愤怒地殴打保安
 A rattlesnake strikes its prey with lightning speed.   响尾蛇以惊人的速度攻击了它的猎物。
-One bullet-train struck the other one which had been forced to stop on a viaduct due to lightning strike,resulting in huge casualties.  一辆动车撞向了另一辆因雷击而停在高架桥上的动车，造成了巨大的人员伤亡。Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  </t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+One bullet-train struck the other one which had been forced to stop on a viaduct due to lightning strike,resulting in huge casualties.  一辆动车撞向了另一辆因雷击而停在高架桥上的动车，造成了巨大的人员伤亡。</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>stringent</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>adj. 紧绷的： tight, constricted
 adj. 严格的： marked by rigor, strictness, or severity especially with regard to rule or standard</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Its drug-testing procedures are the most stringent in the world.   它的药检程序是世界上最严格的</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>strip</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>vt. 脱衣，剥去： to remove clothing, covering, or surface matter from</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Guards stripped and start to search the prisoners.   守卫剥光了犯人，开始搜身。</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>strut</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>vi. 趾高气扬地走： to walk with a pompous and affected air
 n. 支柱，压杆： a structural element used to brace or strengthen a framework by resisting longitudinalcompression</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>A pompous general strutted off the parade ground.   盛气凌人的将军从阅兵场上趾高气扬的走过</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>studio</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>n. 工作室，画室，摄影室： the working place of a painter, sculptor, or photographer</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>moved to a larger studio  搬进了更大的工作室</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>stultify</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>vt. 使无效，抑制： to deprive of vitality and render futile especially by enfeebling or repressiveinfluences</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>The accident stultified his previous efforts.  这场意外使他过去的努力都白费了。</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>stupor</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>n. 迟钝，麻痹，无知觉： a condition of greatly dulled or completely suspended sense or sensibility</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>lapsed into an alcoholic stupor  陷入了无知觉的酒醉状态</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>stunt</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>vt. 阻碍（成长）： to hinder the normal growth, development, or progress of</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>The inhospitable climate had stunted all vegetation.  不佳的气候条件抑制了所有植物的生长。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2267,110 +2254,108 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>studio</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>n. 工作室，画室，摄影室： the working place of a painter, sculptor, or photographer</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>moved to a larger studio  搬进了更大的工作室</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>stultify</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>vt. 使无效，抑制： to deprive of vitality and render futile especially by enfeebling or repressiveinfluences</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>The accident stultified his previous efforts.  这场意外使他过去的努力都白费了。</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>stupor</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>n. 迟钝，麻痹，无知觉： a condition of greatly dulled or completely suspended sense or sensibility</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>lapsed into an alcoholic stupor  陷入了无知觉的酒醉状态</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>stunt</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>vt. 阻碍（成长）： to hinder the normal growth, development, or progress of</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>The inhospitable climate had stunted all vegetation.  不佳的气候条件抑制了所有植物的生长。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>sturdy</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>adj. 强健的，结实的： marked by or reflecting physical strength or vigor; substantially made or built</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>sturdy young athletes  年轻有力的运动员
 Remember to wear sturdy boots because we will be goingover sharp rocks and uneven terrain.  别忘了穿一双靠谱的靴子，因为我们要在锋利的岩石和不平的地形上行走。</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>stygian</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>adj. 极黑暗的： extremely dark, gloomy, or forbidding</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>the stygian blackness of the cave  山洞里令人恐惧的黑暗</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>stymie</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>vt. 阻碍： to present an obstacle to</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>stymied by red tape  被冗长的政策条款所阻碍</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>subdue</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>vt. 征服；使顺从： to conquer and bring into subjection; to bring under one's control by force of arms</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>subdued the native tribes after years of fighting  经过多年征战终于征服了当地的部落</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>n. 臣民，受支配的人： one that is placed under authority or control
-adj. 取决于其他因素的： contingent on or under the influence of some later action</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Because of the tense situation in that country, British subjects were advised to return home as soon aspossible.   因为该国紧张的局势，英国公民被建议尽快返回英国国内。Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  
-The price of seafood is subject to weather conditions.   海鲜的价格受天气影响。</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2380,355 +2365,355 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>stygian</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>adj. 极黑暗的： extremely dark, gloomy, or forbidding</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>the stygian blackness of the cave  山洞里令人恐惧的黑暗</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>stymie</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>vt. 阻碍： to present an obstacle to</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>stymied by red tape  被冗长的政策条款所阻碍</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>subdue</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>vt. 征服；使顺从： to conquer and bring into subjection; to bring under one's control by force of arms</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>subdued the native tribes after years of fighting  经过多年征战终于征服了当地的部落</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>n. 臣民，受支配的人： one that is placed under authority or control</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Because of the tense situation in that country, British subjects were advised to return home as soon aspossible.   因为该国紧张的局势，英国公民被建议尽快返回英国国内。</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>subjugate</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>vt. 征服，镇压： to bring under control and governance as a subject
 vt. 剥夺自由： to make subservient</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>I would rather die than be subjugated.  我宁死也不愿臣服。</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>sublime</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>adj. 崇高的，庄严的： of high spiritual, moral, or intellectual worth
 adj. （因为杰出、装光、美丽等而）令人惊叹的： tending to inspire awe usually because of elevatedquality (as of beauty, nobility, or grandeur) or transcendent excellence</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>the sublime virtue of having given all one's worldly goods to the poor  将所有财产都捐给穷人的崇高美德
 the sublime beauty of the canyon  峡谷令人惊叹的美丽</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>subliminal</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>adj. 下意识的，潜在意识的： below the threshold of conscious perception</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>subliminal advertising in movies  电影中的潜意识广告</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>submerge</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>vt. 使淹没： to put under water</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>The river burst its banks, submerging an entire village.   河水冲上了堤岸，淹没了整个村庄。</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>submissive</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>adj. 服从的，顺从的，恭顺的： submitting to others</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>submissive employees  恭顺的员工
 It's not in her nature to be submissive.   服从不是她的本性。</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>subordinate</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 下级的，次要的： belonging to a lower or inferior class or rank</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">His contention is that environment plays a subordinate role to heredity in determining what we become.  </t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>subservient</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>adj. 奉承的，屈从的： obsequiously submissive</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>subside</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>vi. 下陷，下沉，减弱： to tend downward</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Local officials say the flood waters have subsided.   当地官员表示洪水已经退去。
 As the noise of thesiren subsided, I was able to fall back to sleep.  随着警笛声的减弱，我可以再次睡着了。
 The pain will subsidein a couple of hours.   几个小时之内疼痛感就会退去的。</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>subsidiary</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>adj. 次要的： of secondary importance</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>The river has several subsidiary streams.   这条河拥有数条支流。</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>subsidy</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>n. 补助金，津贴： monetary assistance granted by a government to a person or group in support ofan enterprise regarded as being in the public interest</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>a subsidy to manufacturers during the war  战争期间对制造商的补贴金</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>substantial</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>adj. 物质的： of, relating to, or having substance
 adj. 有重大意义的： considerable in importance, value, degree, amount, or extent</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>a world of dreams, even less substantial than a rainbow  一个梦想中的世界，甚至比彩虹还虚无缥缈
 made a substantial progress  取得了实质性的进展</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>substantiate</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>vt. 证实： to support with proof or evidence
 vt 使实体化： to give material form to</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>There is little scientific evidence to substantiate the claims.   现在还缺乏足够的科学证据来证实这种言论。
 The artist's intense feelings are substantiated by his paintings' bold colors and broad brush strokes.   画家强烈的情感通过他画作中鲜艳的色彩和很宽的笔画体现出来。</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>substantive</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>adj. 本质的，关键的： of or relating to the essence or substance</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>The substantive information is their political stance.  关键的信息是他们的政治立场。</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>subterfuge</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>n. 狡计： deception by artifice or stratagem in order to conceal, escape, or evade</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>The spy obtained the documents by subterfuge.  间谍通过狡猾的计谋获得了文件。</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>subvert</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>vt. 颠覆： to overturn or overthrow from the foundation</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>an alleged plot to subvert the state  一个谣传的旨在推翻政权的阴谋</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>succinct</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>adj. 简明的，简洁的： characterized by clear, precise expression in few words</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>His speech is always succinct and perspicacious.   他的发言总是简洁而一针见血。</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2738,17 +2723,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>succor</t>
+          <t>substantive</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>vt. 救援，援助： to go to the aid of</t>
+          <t>adj. 本质的，关键的： of or relating to the essence or substance</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>We see it as our duty to succor anyone in need.  我们视帮助他人为自己的职责</t>
+          <t>The substantive information is their political stance.  关键的信息是他们的政治立场。</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2760,17 +2745,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>suffocate</t>
+          <t>subterfuge</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vt. 使窒息： to deprive of oxygen</t>
+          <t>n. 狡计： deception by artifice or stratagem in order to conceal, escape, or evade</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>The law requires the owner of a discarded refrigerator to remove its door so that a child won't get trappedinside and suffocate.   法律要求废弃冰箱的所有者移除箱门，从而防止儿童被困其中而窒息致死。</t>
+          <t>The spy obtained the documents by subterfuge.  间谍通过狡猾的计谋获得了文件。</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2782,17 +2767,19 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>suffuse</t>
+          <t>subtle</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>vt. （色彩等）弥漫，染遍，充满： to spread through or over, as with liquid, color, or light</t>
+          <t>adj. 微妙的，难以感知的： (so slight as to be)difficult to understand or perceive
+adj. 巧妙的，间接或带有欺骗性的： clever at attaining one's ends by indirect and often deceptivemeans</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>a room suffused with warm sunlight  一个充满温暖阳光的房间</t>
+          <t>subtle differences in meaning between the words  单词词义之间的细微差别
+used subtle methods of persuasion  采用了十分巧妙的劝说方式</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2804,17 +2791,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sulk</t>
+          <t>subvert</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>vi. 生气，愠怒： to be sullenly aloof or withdrawn, as in silent resentment or protest</t>
+          <t>vt. 颠覆： to overturn or overthrow from the foundation</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>He would sulk for hours whenever he didn’t get what he want.   当他的愿望没被满足时，他会生几个小时的闷气</t>
+          <t>an alleged plot to subvert the state  一个谣传的旨在推翻政权的阴谋</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2826,198 +2813,198 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>succinct</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>adj. 简明的，简洁的： characterized by clear, precise expression in few words</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>His speech is always succinct and perspicacious.   他的发言总是简洁而一针见血。</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>succor</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>vt. 救援，援助： to go to the aid of</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>We see it as our duty to succor anyone in need.  我们视帮助他人为自己的职责</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>suffocate</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>vt. 使窒息： to deprive of oxygen</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>The law requires the owner of a discarded refrigerator to remove its door so that a child won't get trappedinside and suffocate.   法律要求废弃冰箱的所有者移除箱门，从而防止儿童被困其中而窒息致死。</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>suffuse</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>vt. （色彩等）弥漫，染遍，充满： to spread through or over, as with liquid, color, or light</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>a room suffused with warm sunlight  一个充满温暖阳光的房间</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>sulk</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>vi. 生气，愠怒： to be sullenly aloof or withdrawn, as in silent resentment or protest</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>He would sulk for hours whenever he didn’t get what he want.   当他的愿望没被满足时，他会生几个小时的闷气</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>sullen</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>adj. 闷闷不乐的： causing or marked by an atmosphere lacking in cheer</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>She remained sullen amid festivities alone.  她独自一人在喜庆的气氛中闷闷不乐。
 sullen skies thatmatched our mood on the day of the funeral  葬礼当天与我们很搭调的沉闷天气</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>n. 摘要： an abstract, abridgment, or compendium especially of a preceding discourse
 adj. 就地的，立即的： done or executed on the spot and without formality</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Many book reports choose to begin with a summary of the book.   许多书评以该书的摘要开始。
 a summary trial and speedy execution  就地的判决和快速的处决</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>summit</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>n. 顶点： the highest point</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>the summit of his ambition  他雄心壮志的顶点</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>summon</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>vt. 召集，召唤： to call together
 vt. 传唤（出庭、出席）： to command by service of a summons, especially to appear in court</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>The general summoned all his troops before the operation.   行动之前，将军把所有的部队召集到了一起。
-was summoned to answer charges  他被传唤出庭应对起诉本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>sumptuous</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>adj. 豪华的，奢侈的： extremely costly, rich, luxurious, or magnificent</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>The hotel claims to offer sumptuous furnishings and exquisitely prepared cuisine.   酒店宣称有奢华的装潢和精心准备的食物。</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>sunder</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>vt. 分裂，分离： to break apart or in two</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>a city sundered by racial conflict  一个因种族冲突而分裂的城市</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>supercilious</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>adj. 高傲的，傲慢的： feeling or showing haughty disdain</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>The aristocrat reacted to their breach of etiquette with a supercilious smile.  贵族对破坏他们破坏礼节的行为报以傲慢的一笑。</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>superficial</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>adj. 表面的，肤浅的： lacking in depth, solidity, and comprehensiveness</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>The official’s superficial report on the situation provoked wide blame on the Internet.  官 员 对 于 情 况 敷衍般的描述激起了网络上的广泛谴责。</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>superfluous</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>adj. 多余的，过剩的： exceeding what is sufficient or necessary</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>a complicated algorithm that could filter all superfluous information  一个能滤除所有的多余信息的复杂算法</t>
+was summoned to answer charges  他被传唤出庭应对起诉</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3029,15 +3016,19 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>sumptuous</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 懒散的，懒得动的、倦怠的、消极的或漠不关心的： showing lethargy, passivity, or blameworthyindifference</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>adj. 豪华的，奢侈的： extremely costly, rich, luxurious, or magnificent</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>The hotel claims to offer sumptuous furnishings and exquisitely prepared cuisine.   酒店宣称有奢华的装潢和精心准备的食物。</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3047,17 +3038,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>supple</t>
+          <t>sunder</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 易弯曲的，柔软的： readily bent; pliant</t>
+          <t>vt. 分裂，分离： to break apart or in two</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>supple limbs  柔软的四肢 || a supple mind  灵活的头脑</t>
+          <t>a city sundered by racial conflict  一个因种族冲突而分裂的城市</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3069,17 +3060,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>supplant</t>
+          <t>supercilious</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>vt. 排挤，篡夺…的位置： to usurp the place of, especially through intrigue or underhanded tactics</t>
+          <t>adj. 高傲的，傲慢的： feeling or showing haughty disdain</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Old traditions were fading away and being supplanted by modern ways.   老传统逐渐式微，被现代方式取代。</t>
+          <t>The aristocrat reacted to their breach of etiquette with a supercilious smile.  贵族对破坏他们破坏礼节的行为报以傲慢的一笑。</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3091,17 +3082,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>supplement</t>
+          <t>superficial</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>n./v.增补，补充： something that serves to complete or make up for a deficiency in something else</t>
+          <t>adj. 表面的，肤浅的： lacking in depth, solidity, and comprehensiveness</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>recommends taking a vitamin C supplement to prevent colds  建议补充维生素 C  来预防感冒</t>
+          <t>The official’s superficial report on the situation provoked wide blame on the Internet.  官 员 对 于 情 况 敷衍般的描述激起了网络上的广泛谴责。</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3113,17 +3104,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>supplicate</t>
+          <t>superfluous</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>v. 恳求，乞求： to make a request to (someone) in an earnest or urgent manner</t>
+          <t>adj. 多余的，过剩的： exceeding what is sufficient or necessary</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>God is not just someone to be supplicated in times of trouble.  我们不应该只在困难时候才向主祷告。</t>
+          <t>a complicated algorithm that could filter all superfluous information  一个能滤除所有的多余信息的复杂算法</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3135,19 +3126,15 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>supposition</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>n. 猜想，推测： an opinion or judgment based on little or no evidence</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>It's pure supposition on your part that there's something illegal going on next door.  你 说 隔 壁 在 进 行非法勾当纯属猜测。</t>
-        </is>
-      </c>
+          <t>adj. 懒散的，懒得动的、倦怠的、消极的或漠不关心的： showing lethargy, passivity, or blameworthyindifference</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3157,17 +3144,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>suppress</t>
+          <t>supple</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vt. 抑制（表情）： to inhibit the expression of (an impulse, for example); check</t>
+          <t>adj. 易弯曲的，柔软的： readily bent; pliant</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>suppress a smile  忍住笑容</t>
+          <t>supple limbs  柔软的四肢 || a supple mind  灵活的头脑</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3179,17 +3166,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>surcharge</t>
+          <t>supplant</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>v./n. 过高收费： to charge (someone) too much for goods or services</t>
+          <t>vt. 排挤，篡夺…的位置： to usurp the place of, especially through intrigue or underhanded tactics</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>The airline has added a $30 fuel surcharge on all international flights.  该航空公司对所有国际航线上涨了 30 美元的燃油税。</t>
+          <t>Old traditions were fading away and being supplanted by modern ways.   老传统逐渐式微，被现代方式取代。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3201,17 +3188,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>surfeit</t>
+          <t>supplement</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>v./n. 过量，饮食过度： to feed or supply to excess</t>
+          <t>n./v.增补，补充： something that serves to complete or make up for a deficiency in something else</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>He surfeited himself with chocolate.   他巧克力吃多了</t>
+          <t>recommends taking a vitamin C supplement to prevent colds  建议补充维生素 C  来预防感冒</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3223,261 +3210,269 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>supplicate</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>v. 恳求，乞求： to make a request to (someone) in an earnest or urgent manner</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>God is not just someone to be supplicated in times of trouble.  我们不应该只在困难时候才向主祷告。</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>supposition</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>n. 猜想，推测： an opinion or judgment based on little or no evidence</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>It's pure supposition on your part that there's something illegal going on next door.  你 说 隔 壁 在 进 行非法勾当纯属猜测。</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>suppress</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>vt. 抑制（表情）： to inhibit the expression of (an impulse, for example); check</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>suppress a smile  忍住笑容</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>surcharge</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>v./n. 过高收费： to charge (someone) too much for goods or services</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>The airline has added a $30 fuel surcharge on all international flights.  该航空公司对所有国际航线上涨了 30 美元的燃油税。</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>surfeit</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>v./n. 过量，饮食过度： to feed or supply to excess</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>He surfeited himself with chocolate.   他巧克力吃多了</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>surrender</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 交出，放弃，投降： to give (something) over to the control or possession of another usually underduress
 v. 沉溺于： to give (oneself) over to something especially unrestrainedly</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>surrender a contractual right  放弃契约上规定的一项权利
 surrendered himself to grief  沉湎于悲伤</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>surreptitious</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>adj. 偷偷摸摸的，保密的： undertaken or done so as to escape being observed or known by others</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>took a surreptitious glance at her knees  偷偷瞟了一下她的膝盖</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>suspend</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>vi. 暂停，中止： to bring to a formal close for a period of time
 vt. 悬挂： hang</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>suspended the trial  暂停审判
 suspended a banner proclaiming the town's “Heritage Days” from the archway  在拱门上方悬挂了一条庆</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>suture</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>n./v. 缝合： the process of joining two surfaces or edges together along a line by or as if by sewing</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>The doctor cleaned, sutured, and bandaged the wound.  医生将伤口清洗、缝合、包扎。</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>svelte</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>adj. （女人）体态苗条的，优雅的： slender or graceful in figure or outline; slim.</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>The svelte dancer seemed to float across the stage.  苗条的舞者看起来就像在舞台上漂浮。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>swagger</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>vi. 大摇大摆地走，趾高气昂地走： to conduct oneself in an arrogant or superciliously pompousmanner
 v. 自夸，吹嘘： boast, brag</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>The young man confidently swaggered across the room.   年轻人高傲地在房间里走来走去。
 I would swagger if I'd won first place in the bowling tournament.   如果我赢了保龄球锦标赛我肯定会自夸。</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>swear</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>vi. 咒骂： to use profane or obscene language: curse
 v. 宣誓： to promise or pledge with a solemn oath; vow</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>no one is allowed to swear in this house  这个房间里禁止说脏话
 He swore his oath of allegiance to the queen.   他宣誓效忠女王</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>sweltering</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>adj. 酷热的： oppressively hot</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>swill</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>vt. 痛饮，大口地吃： to drink greedily, to eat greedily or to excess</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Considering the way she swills carbonated drinks, she ought to own stock in Pepsi company.  鉴 于 她对碳酸饮料消费的贡献，百事公司应该给她分点股份。</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>swindle</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>vt. 欺骗，骗取： to cheat or defraud of money or property</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Hundreds of people were swindled out of their savings  几百人都被骗去了存款。</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>sybarite</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>n. 沉于奢侈逸乐者，酒色之徒： a person devoted to pleasure and luxury; a voluptuary</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>The prince was remembered as a self-indulgent sybarite.   王子酒色之徒的名声远扬。</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>sycophant</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>n. 马屁精： a servile self-seeking flatterer</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3487,19 +3482,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>syllabus</t>
+          <t>sweltering</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>n. 提纲，摘要：课文、演讲或研究课题的要点的概要或提纲： an outline or a summary of the main pointsof a text, lecture, or course of study</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Have you got next year’s syllabus? 你拿到明年的教学大纲了吗？</t>
-        </is>
-      </c>
+          <t>adj. 酷热的： oppressively hot</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3509,17 +3500,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>syllogism</t>
+          <t>swerve</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>n. 由一般到个别的推理；演绎： reasoning from the general to the specific; deduction</t>
+          <t>vi. 突然改变方向： to turn aside abruptly from a straight line or course</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>The syllogism was at the core of traditional deductive reasoning, where facts are determined by combiningexisting statements, in contrast to inductive reasoning where facts are determined by repeated observations.  从一般到个别的推理是传统演绎推理的核心由结合现存状态所确定，而归纳推理则由重复观测来确认。</t>
+          <t>The car swerved sharply to avoid the squirrel in the road.   为了避开路中的松鼠，汽车猛地转向。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3531,17 +3522,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>symbiosis</t>
+          <t>swill</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>n. 共生关系： the living together in more or less intimate association or close union of two dissimilar</t>
+          <t>vt. 痛饮，大口地吃： to drink greedily, to eat greedily or to excess</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>The bird lives in symbiosis with the hippopotamus.   这种鸟和河马是共生关系。</t>
+          <t>Considering the way she swills carbonated drinks, she ought to own stock in Pepsi company.  鉴 于 她对碳酸饮料消费的贡献，百事公司应该给她分点股份。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3553,17 +3544,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>symmetry</t>
+          <t>swindle</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>n. 对称： balanced proportions</t>
+          <t>vt. 欺骗，骗取： to cheat or defraud of money or property</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>The building has perfect symmetry.   这栋房子是完美的对称构造。</t>
+          <t>Hundreds of people were swindled out of their savings  几百人都被骗去了存款。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3575,17 +3566,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>synchronous</t>
+          <t>sybarite</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>adj 同时期的，同相的： having identical period and phase</t>
+          <t>n. 沉于奢侈逸乐者，酒色之徒： a person devoted to pleasure and luxury; a voluptuary</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">The synchronous arrival of a baby sister and loss of a beloved grandmother strongly affected the girl.  </t>
+          <t>The prince was remembered as a self-indulgent sybarite.   王子酒色之徒的名声远扬。</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3597,19 +3588,15 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>synergic</t>
+          <t>sycophant</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>adj. 合作的： working together: cooperating</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>synergic muscles  协同肌肉</t>
-        </is>
-      </c>
+          <t>n. 马屁精： a servile self-seeking flatterer</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3619,17 +3606,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>synonymous</t>
+          <t>syllabus</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>adj. 同义的： having the same or a similar meaning</t>
+          <t>n. 提纲，摘要：课文、演讲或研究课题的要点的概要或提纲： an outline or a summary of the main pointsof a text, lecture, or course of study</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Paris has always been synonymous with elegance, luxury and style.   巴黎在人们心中就是优雅、奢侈、时尚的同义词。</t>
+          <t>Have you got next year’s syllabus? 你拿到明年的教学大纲了吗？</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3641,17 +3628,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>synopsis</t>
+          <t>syllogism</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>n. 摘要，概要： a brief outline or general view; an abstract or a summary.</t>
+          <t>n. 由一般到个别的推理；演绎： reasoning from the general to the specific; deduction</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Just give me a synopsis of the movie.  把电影的大致情节给我说说就行。</t>
+          <t>The syllogism was at the core of traditional deductive reasoning, where facts are determined by combiningexisting statements, in contrast to inductive reasoning where facts are determined by repeated observations.  从一般到个别的推理是传统演绎推理的核心由结合现存状态所确定，而归纳推理则由重复观测来确认。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3663,17 +3650,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>synthesis</t>
+          <t>symbiosis</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>n. 合成，综合： the combination of parts or elements so as to form a whole</t>
+          <t>n. 共生关系： the living together in more or less intimate association or close union of two dissimilar</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>a philosophy that is a kind of synthesis of several schools of Western and Eastern thought  哲 学 史 东 西方很多流派思想的综合</t>
+          <t>The bird lives in symbiosis with the hippopotamus.   这种鸟和河马是共生关系。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3685,17 +3672,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>tacit</t>
+          <t>symmetry</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>adj. 暗示的： implied or indicated (as by an act or by silence) but not actually expressed</t>
+          <t>n. 对称： balanced proportions</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>tacit consent  默许</t>
+          <t>The building has perfect symmetry.   这栋房子是完美的对称构造。</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3707,15 +3694,19 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>taciturn</t>
+          <t>synchronous</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>adj. 沉默寡言的，话少的： temperamentally disinclined to talk</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>adj 同时期的，同相的： having identical period and phase</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The synchronous arrival of a baby sister and loss of a beloved grandmother strongly affected the girl.  </t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3725,17 +3716,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>tackle</t>
+          <t>synergic</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>v. 着手处理： to start work on energetically</t>
+          <t>adj. 合作的： working together: cooperating</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Once I clean the kitchen, I think I'll tackle the bathroom.   等我把厨房收拾干净了，就去收拾浴室。</t>
+          <t>synergic muscles  协同肌肉</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3747,17 +3738,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>tact</t>
+          <t>synonymous</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>n. 机敏，精明，不冒犯： a keen sense of what to do or say in order to maintain good relations withothers or avoid offense</t>
+          <t>adj. 同义的： having the same or a similar meaning</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>She talked to her neighbor with supreme tact.   她和邻居说话语调十分圆滑。</t>
+          <t>Paris has always been synonymous with elegance, luxury and style.   巴黎在人们心中就是优雅、奢侈、时尚的同义词。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3769,17 +3760,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>tactile</t>
+          <t>synopsis</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. 有触觉的，能触知的： perceptible by touch: tangible</t>
+          <t>n. 摘要，概要： a brief outline or general view; an abstract or a summary.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>The thick brushstrokes give the painting a tactile quality.  粘稠的笔触给了这幅画一种厚实的感觉。</t>
+          <t>Just give me a synopsis of the movie.  把电影的大致情节给我说说就行。</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3791,17 +3782,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tactless</t>
+          <t>synthesis</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adj. 不机智的，笨拙的： bluntly inconsiderate or indiscreet.</t>
+          <t>n. 合成，综合： the combination of parts or elements so as to form a whole</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>tactless comments  不明智的评论</t>
+          <t>a philosophy that is a kind of synthesis of several schools of Western and Eastern thought  哲 学 史 东 西方很多流派思想的综合</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3813,17 +3804,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>talisman</t>
+          <t>tacit</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>n. 护身符： something worn or kept to bring good luck or keep away evil</t>
+          <t>adj. 暗示的： implied or indicated (as by an act or by silence) but not actually expressed</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>A pendant of white nephrite jade is often worn by Indians as a talisman to ward off heart disease.  印度人通常戴一串软玉项链防止心脏病发作。</t>
+          <t>tacit consent  默许</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3835,16 +3826,82 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>taint</t>
+          <t>taciturn</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>vt. （品质）污损： to affect slightly with something morally bad or undesirable</t>
+          <t>adj. 沉默寡言的，话少的： temperamentally disinclined to talk</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>tackle</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>v. 着手处理： to start work on energetically</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Once I clean the kitchen, I think I'll tackle the bathroom.   等我把厨房收拾干净了，就去收拾浴室。</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>tact</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>n. 机敏，精明，不冒犯： a keen sense of what to do or say in order to maintain good relations withothers or avoid offense</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>She talked to her neighbor with supreme tact.   她和邻居说话语调十分圆滑。</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>tactile</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>adj. 有触觉的，能触知的： perceptible by touch: tangible</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>The thick brushstrokes give the painting a tactile quality.  粘稠的笔触给了这幅画一种厚实的感觉。</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_8.xlsx
+++ b/result/生词本导入模版_8.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,41 +422,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>soporific</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>n. 安眠药： a drug or other substance that induces sleep</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Alcohol is a poor hypnotic because it disturbs sleep patterns, and so can worsen sleep disorders.  酒精是一种欠佳的安眠药，因为它会干扰睡眠的固定模式，从而恶化睡眠紊乱的情况。</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>soporific</t>
+          <t>sordid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n. 安眠药： a drug or other substance that induces sleep</t>
+          <t>adj. 肮脏的，不干净的： not clean
+adj. 卑鄙的： marked by baseness or grossness</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol is a poor hypnotic because it disturbs sleep patterns, and so can worsen sleep disorders.  酒精是一种欠佳的安眠药，因为它会干扰睡眠的固定模式，从而恶化睡眠紊乱的情况。</t>
+          <t>I will not let my children grow up in such a sordid environment.   我绝不会让我的孩子在这样一个肮脏的环境之中成长。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,46 +469,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sordid</t>
+          <t>sound</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>adj. 肮脏的，不干净的： not clean
-adj. 卑鄙的： marked by baseness or grossness</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>I will not let my children grow up in such a sordid environment.   我绝不会让我的孩子在这样一个肮脏的环境之中成长。</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sound</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>adj. 牢固的，不可动摇的： marked by the ability to withstand stress without structural damage ordistortion
 adj. 健康的，强壮的： free from injury or disease: exhibiting normal health
 adj. （逻辑上）严谨的： based on valid reasoning</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>The bridge is structurally sound.   这座大桥在结构上是稳固的。
 The horse is getting old, but still perfectly sound.   虽然在变老，但这匹马依然相当健康。
 Sound reasoning alone should tell you that the result is invalid.   从纯粹严谨的逻辑演绎出发，这个结论是不正确的。</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sparse</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adj. 稀疏的，稀少的： less plentiful than what is normal, necessary, or desirable</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Many slopes are rock fields with sparse vegetation.  许多山坡都是不长植物的石坡。</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -529,17 +517,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sparse</t>
+          <t>spartan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. 稀疏的，稀少的： less plentiful than what is normal, necessary, or desirable</t>
+          <t>adj. 简朴的，节约的： marked by simplicity, frugality, or avoidance of luxury and comfort</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Many slopes are rock fields with sparse vegetation.  许多山坡都是不长植物的石坡。</t>
+          <t>Accommodations on the windjammer are spartan but clean and comfortable nevertheless.   帆 船 上 的 装饰十分朴素，但还是很干净和舒适。</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,17 +539,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>spartan</t>
+          <t>spat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 简朴的，节约的： marked by simplicity, frugality, or avoidance of luxury and comfort</t>
+          <t>n. （小的）争吵： a brief petty quarrel or angry outburst</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Accommodations on the windjammer are spartan but clean and comfortable nevertheless.   帆 船 上 的 装饰十分朴素，但还是很干净和舒适。</t>
+          <t>Like any couple, they have their spats.  像其他夫妻一样，他们也会有争执。
+They were typical sisters,spatting one minute, playing together the next.  她们是典型的姐妹：上一分钟还在吵架，下一分钟又玩在一起了。</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,18 +562,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>spat</t>
+          <t>spate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. （小的）争吵： a brief petty quarrel or angry outburst</t>
+          <t>n. 突发的洪水： sudden flood
+n. 大量： a large number or amount</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Like any couple, they have their spats.  像其他夫妻一样，他们也会有争执。
-They were typical sisters,spatting one minute, playing together the next.  她们是典型的姐妹：上一分钟还在吵架，下一分钟又玩在一起了。</t>
+          <t>a spate of books about GRE  很多关于 GRE  的书</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -596,18 +585,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>spate</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>n. 突发的洪水： sudden flood
-n. 大量： a large number or amount</t>
+          <t>adj. 特有的，独特的： of a particular or exact sort
+adj. 明确的： so clearly expressed as to leave no doubt about the meaning</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a spate of books about GRE  很多关于 GRE  的书</t>
+          <t>We need a specific type of pen to sign the diplomas.  我们需要一种特制的笔来签署学位证书。
+specific instructions regarding the interrogation of prisoners  有关如何审问犯人的明确指示</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -619,21 +609,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>specific</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>adj. 特有的，独特的： of a particular or exact sort
-adj. 明确的： so clearly expressed as to leave no doubt about the meaning</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>We need a specific type of pen to sign the diplomas.  我们需要一种特制的笔来签署学位证书。
-specific instructions regarding the interrogation of prisoners  有关如何审问犯人的明确指示</t>
-        </is>
-      </c>
+          <t>specious</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -643,11 +623,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>specious</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>speck</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n. 小点，少量： a very small amount: bit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>She writes without even a speck of humor.  她字里行间一点幽默感也没有。</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -657,17 +645,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>speck</t>
+          <t>spectator</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>n. 小点，少量： a very small amount: bit</t>
+          <t>n. 观众，目击者，旁观者： one who looks on or watches</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>She writes without even a speck of humor.  她字里行间一点幽默感也没有。</t>
+          <t>join the organization as temporary spectator  作为短期观察员加入该组织
+The accident attracted alarge crowd of spectators.   事故引来了大量的围观群众。</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -679,18 +668,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>spectator</t>
+          <t>spectrum</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>n. 观众，目击者，旁观者： one who looks on or watches</t>
+          <t>n. 范围，系列： a broad sequence or range of related qualities, ideas, or activities</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>join the organization as temporary spectator  作为短期观察员加入该组织
-The accident attracted alarge crowd of spectators.   事故引来了大量的围观群众。</t>
+          <t>the whole spectrum of 20th-century thought 20 世纪所有不同的思潮
+A political spectrum is a way ofmodeling different political positions by placing them upon one or more geometric axes symbolizing independentpolitical dimensions.   所谓的政治光谱是一种将不同的政治立场可视化的模型，它通过一根或者多根几何坐标轴来定位不同的政治态度。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -702,18 +691,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>spectrum</t>
+          <t>speculate</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>n. 范围，系列： a broad sequence or range of related qualities, ideas, or activities</t>
+          <t>vt. 推测，揣测： to take to be true on the basis of insufficient evidence
+vi. 投机倒卖： to buy or sell in expectation of profiting from market fluctuations</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>the whole spectrum of 20th-century thought 20 世纪所有不同的思潮
-A political spectrum is a way ofmodeling different political positions by placing them upon one or more geometric axes symbolizing independentpolitical dimensions.   所谓的政治光谱是一种将不同的政治立场可视化的模型，它通过一根或者多根几何坐标轴来定位不同的政治态度。</t>
+          <t>I speculate that someone has been using this cabin as a trysting place.   我猜测有情侣把这个小屋当做他们幽会的地方。
+speculating on the oil market  在石油市场上投机倒卖</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -725,19 +715,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>speculate</t>
+          <t>spendthrift</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>vt. 推测，揣测： to take to be true on the basis of insufficient evidence
-vi. 投机倒卖： to buy or sell in expectation of profiting from market fluctuations</t>
+          <t>n. 挥霍者，败家子： a person who spends improvidently or wastefully
+adj. 挥霍的，不节俭的： given to spending money freely or foolishly</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>I speculate that someone has been using this cabin as a trysting place.   我猜测有情侣把这个小屋当做他们幽会的地方。
-speculating on the oil market  在石油市场上投机倒卖</t>
+          <t>The spendthrift managed to blow all of his inheritance in a single year.  这个败家子只用了一年就把自己继承的遗产挥霍一空。
+Spendthrift consumers amassed a mountain of debt on their credit cards.   那些爱挥霍财富的消费者们在他们的信用卡上累积了一大笔债务。</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,19 +739,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>spendthrift</t>
+          <t>spent</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>n. 挥霍者，败家子： a person who spends improvidently or wastefully
-adj. 挥霍的，不节俭的： given to spending money freely or foolishly</t>
+          <t>adj. 精疲力竭的： drained of energy or effectiveness</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The spendthrift managed to blow all of his inheritance in a single year.  这个败家子只用了一年就把自己继承的遗产挥霍一空。
-Spendthrift consumers amassed a mountain of debt on their credit cards.   那些爱挥霍财富的消费者们在他们的信用卡上累积了一大笔债务。</t>
+          <t>After all that exertion, we were completely spent.   在完成所有的锻炼之后我们已是筋疲力尽。</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -773,17 +761,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>spent</t>
+          <t>spindly</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 精疲力竭的： drained of energy or effectiveness</t>
+          <t>adj. 细长纤弱的： frail or flimsy in appearance or structure</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>After all that exertion, we were completely spent.   在完成所有的锻炼之后我们已是筋疲力尽。</t>
+          <t>I prefer having rather spindly legs.  我更希望有一双细腿。</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -795,17 +783,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>spindly</t>
+          <t>spiny</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adj. 细长纤弱的： frail or flimsy in appearance or structure</t>
+          <t>adj. 多刺的： bearingspines, prickles, or thorns
+adj. 棘手的，麻烦的： requiring exceptional skill or caution in performance or handling</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I prefer having rather spindly legs.  我更希望有一双细腿。</t>
+          <t>low spiny bushes of sage  低矮多刺的长满鼠尾草的灌木丛
+This promises to be a spiny problem to negotiate.   这有可能成为谈判过程中棘手的问题。</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -817,19 +807,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>spiny</t>
+          <t>spleen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>adj. 多刺的： bearingspines, prickles, or thorns
-adj. 棘手的，麻烦的： requiring exceptional skill or caution in performance or handling</t>
+          <t>n. 怒气，怨恨： feelings of anger or ill will often suppressed</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>low spiny bushes of sage  低矮多刺的长满鼠尾草的灌木丛
-This promises to be a spiny problem to negotiate.   这有可能成为谈判过程中棘手的问题。</t>
+          <t>She vented her spleen on her boyfriend and felt much better for having done so.   在她把怒气一股脑地倾泻到她男朋友身上之后，她感觉好多了。</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -841,17 +829,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>spleen</t>
+          <t>splice</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n. 怒气，怨恨： feelings of anger or ill will often suppressed</t>
+          <t>vt. 接合，叠接： to unite (as two ropes) by interweaving the strands, or to join (as two pieces of film)at the ends</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>She vented her spleen on her boyfriend and felt much better for having done so.   在她把怒气一股脑地倾泻到她男朋友身上之后，她感觉好多了。</t>
+          <t>He taught me to edit and splice film.   他教会我如何剪辑和叠合胶卷。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -863,17 +851,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>splice</t>
+          <t>spontaneous</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>vt. 接合，叠接： to unite (as two ropes) by interweaving the strands, or to join (as two pieces of film)at the ends</t>
+          <t>adj. 自发的，不经思索的： acting or activated without apparent thought or deliberation</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>He taught me to edit and splice film.   他教会我如何剪辑和叠合胶卷。</t>
+          <t>Hugging a crying child is simply a spontaneous reaction.  去抱一个哭泣的小孩是很自然而然的反应。</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -885,17 +873,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>spontaneous</t>
+          <t>spoof</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 自发的，不经思索的： acting or activated without apparent thought or deliberation</t>
+          <t>n. 轻松幽默的模仿，小恶搞： a work that imitates and exaggerates another work for comic effect
+v. 诱骗，诱使相信： to cause to believe what is untrue</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hugging a crying child is simply a spontaneous reaction.  去抱一个哭泣的小孩是很自然而然的反应。</t>
+          <t>Many viewers thought that the spoof of a television newscast was the real thing.   许多观众认为这则新闻报道被恶搞之后的作品才是真实的东西。
+The public was spoofed by a supposedly plausible report of a UFO encounter.  一个听起来真实的 UFO  遭遇报告欺骗了大众。</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -907,19 +897,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>spoof</t>
+          <t>sporadic</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>n. 轻松幽默的模仿，小恶搞： a work that imitates and exaggerates another work for comic effect
-v. 诱骗，诱使相信： to cause to believe what is untrue</t>
+          <t>adj. 偶尔的，零星发生的： not often occurring or repeated</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Many viewers thought that the spoof of a television newscast was the real thing.   许多观众认为这则新闻报道被恶搞之后的作品才是真实的东西。
-The public was spoofed by a supposedly plausible report of a UFO encounter.  一个听起来真实的 UFO  遭遇报告欺骗了大众。</t>
+          <t>On the whole, situation has significantly improved with only sporadic disturbances.   总体而言，局势得到了明显的改善，现在只有偶尔发生的骚乱。</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -931,17 +919,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sporadic</t>
+          <t>sprawl</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj. 偶尔的，零星发生的： not often occurring or repeated</t>
+          <t>vt. 杂乱无序地发展： to grow, develop, or spread irregularly and without apparent design or plan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>On the whole, situation has significantly improved with only sporadic disturbances.   总体而言，局势得到了明显的改善，现在只有偶尔发生的骚乱。</t>
+          <t>The city sprawls down the whole coast.   城市顺着整条海岸线蔓延。</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -953,17 +941,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sprawl</t>
+          <t>sprightly</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vt. 杂乱无序地发展： to grow, develop, or spread irregularly and without apparent design or plan</t>
+          <t>adj. 活泼的，充满活力的： full of spirit and vitality</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The city sprawls down the whole coast.   城市顺着整条海岸线蔓延。</t>
+          <t>He was deeply impressed by the sprightly Gypsy dance.  活力四射的吉普赛舞蹈给他留下了深刻印象。</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -975,45 +963,45 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sprightly</t>
+          <t>spur</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>adj. 活泼的，充满活力的： full of spirit and vitality</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>He was deeply impressed by the sprightly Gypsy dance.  活力四射的吉普赛舞蹈给他留下了深刻印象。</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>spur</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
         <is>
           <t>n. 刺激物： something that arouses action or activity
 n. 支撑物： a structure that holds up or serves as a foundation for something else
 vt. 刺激，激励： to incite or stimulate</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>The threat of losing its only sports franchise was the spur the city council needed to finally do somethingabout the rising crime rate.   有可能失去唯一的体育赛事举办权带来的威胁，成为了刺激市政府决定就攀升的犯罪率采取相关措施的因素。
 a weak wall that might need a spur  一面或许需要支撑的墙
 Appreciation spurred his ambition.  赞扬激起了他的雄心壮志。</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>spurious</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>adj. 假的，伪造的： lacking authenticity or validity in essence or origin; not genuine</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>In statistics, a spurious relationship is a mathematical relationship in which two events or variables have nodirect causal connection, but it may be wrongly inferred that they do, due to either coincidence or the presence ofa certain third, unseen factor.   在统计学中，“伪相关关系”是两个不存在因果关联的事件或变量，因为巧合或是不可见的第三方因素，而被误判为存在因果联系的关系。</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1023,17 +1011,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>spurious</t>
+          <t>spurn</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adj. 假的，伪造的： lacking authenticity or validity in essence or origin; not genuine</t>
+          <t>vt. 摈弃，拒绝： to reject with disdain or contempt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>In statistics, a spurious relationship is a mathematical relationship in which two events or variables have nodirect causal connection, but it may be wrongly inferred that they do, due to either coincidence or the presence ofa certain third, unseen factor.   在统计学中，“伪相关关系”是两个不存在因果关联的事件或变量，因为巧合或是不可见的第三方因素，而被误判为存在因果联系的关系。</t>
+          <t>spurned his recommendation  拒绝了他的推荐
+Fiercely independent, the elderly couple spurned alloffers of financial help.   这对老夫妻极其独立，回绝了所有经济上援助。</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1045,18 +1034,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>spurn</t>
+          <t>squabble</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vt. 摈弃，拒绝： to reject with disdain or contempt</t>
+          <t>n. 口角，小争吵： a noisy quarrel, usually about a trivial matter</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>spurned his recommendation  拒绝了他的推荐
-Fiercely independent, the elderly couple spurned alloffers of financial help.   这对老夫妻极其独立，回绝了所有经济上援助。</t>
+          <t>a brief squabble over what to do next  关于接下来该做什么的争吵</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1068,17 +1056,18 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>squabble</t>
+          <t>squalid</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>n. 口角，小争吵： a noisy quarrel, usually about a trivial matter</t>
+          <t>adj. 污秽的，肮脏的： dirty and wretched
+adj. 道德败坏的： morally repulsive</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>a brief squabble over what to do next  关于接下来该做什么的争吵</t>
+          <t>The migrants have been living in squalid conditions.  移民们一直居住在肮脏的条件下。</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1090,18 +1079,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>squalid</t>
+          <t>squall</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>adj. 污秽的，肮脏的： dirty and wretched
-adj. 道德败坏的： morally repulsive</t>
+          <t>n. （通常伴随着雨或雪的）风暴，暴风雪： a brief, sudden, violent windstorm, often accompaniedby rain or snow
+vt. 尖叫： to scream or cry loudly and harshly</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The migrants have been living in squalid conditions.  移民们一直居住在肮脏的条件下。</t>
+          <t>A snow squall is expected tonight.  今晚预计有暴风雪。
+The baby squalled in pain.   婴儿因为疼痛而大叫。</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1113,19 +1103,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>squall</t>
+          <t>squander</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>n. （通常伴随着雨或雪的）风暴，暴风雪： a brief, sudden, violent windstorm, often accompaniedby rain or snow
-vt. 尖叫： to scream or cry loudly and harshly</t>
+          <t>vt. 使分散： to cause (members of a group) to move widely apart
+vt. 浪费： to spend wastefully or extravagantly</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A snow squall is expected tonight.  今晚预计有暴风雪。
-The baby squalled in pain.   婴儿因为疼痛而大叫。</t>
+          <t>A single blast of the shotgun squandered the herd of deer.   猎枪的一声枪响让鹿群四处逃窜。
+He squandered his inheritance on women and gambling.  他把他继承的遗产浪费在女人和赌博上。</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1137,19 +1127,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>squander</t>
+          <t>squat</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vt. 使分散： to cause (members of a group) to move widely apart
-vt. 浪费： to spend wastefully or extravagantly</t>
+          <t>adj. 又矮又胖的： being compact and broad in build and often short in stature</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A single blast of the shotgun squandered the herd of deer.   猎枪的一声枪响让鹿群四处逃窜。
-He squandered his inheritance on women and gambling.  他把他继承的遗产浪费在女人和赌博上。</t>
+          <t>a squat but adroit craftsman  一个又胖又矮，但是手艺灵巧的工匠</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1161,17 +1149,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>squat</t>
+          <t>squint</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>adj. 又矮又胖的： being compact and broad in build and often short in stature</t>
+          <t>vt. 斜视，睥睨： to look or glance sideways</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>a squat but adroit craftsman  一个又胖又矮，但是手艺灵巧的工匠</t>
+          <t>The driver squinted as the sun hit his windshield.   阳光使得驾驶员不得不把眼睛偏向一边</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1183,17 +1171,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>squint</t>
+          <t>squelch</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vt. 斜视，睥睨： to look or glance sideways</t>
+          <t>vt. 压制，镇压（运动）： to put a stop to (something) by the use of force
+vt. 击溃，使无言以对： to put down or silence, as with a crushing retort</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The driver squinted as the sun hit his windshield.   阳光使得驾驶员不得不把眼睛偏向一边</t>
+          <t>The authority tried to squelch the workers’ protest.   政府试图镇压工人的游行。
+His irritated glare squelched any other potential objectors.   他怒目而视，使得其他的反对者都不敢说话。</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1205,19 +1195,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>squelch</t>
+          <t>stabilize</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>vt. 压制，镇压（运动）： to put a stop to (something) by the use of force
-vt. 击溃，使无言以对： to put down or silence, as with a crushing retort</t>
+          <t>vt./vi. 使稳定；变得稳定： to make stable, steadfast, or firm; to become stable, steadfast, or fixed</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The authority tried to squelch the workers’ protest.   政府试图镇压工人的游行。
-His irritated glare squelched any other potential objectors.   他怒目而视，使得其他的反对者都不敢说话。</t>
+          <t>a policy that intended to stabilize the situation in Iraq  一 项 旨 在 维 护 伊 拉 克 局 势 稳 定 的 政 策
+Thecountry's population has stabilized at 3.  2 million.   这个国家的人口维持在三百二十万。</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1229,45 +1218,44 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>stabilize</t>
+          <t>stalwart</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>vt./vi. 使稳定；变得稳定： to make stable, steadfast, or firm; to become stable, steadfast, or fixed</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>a policy that intended to stabilize the situation in Iraq  一 项 旨 在 维 护 伊 拉 克 局 势 稳 定 的 政 策
-Thecountry's population has stabilized at 3.  2 million.   这个国家的人口维持在三百二十万。</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>stalwart</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
         <is>
           <t>adj. 无所畏惧的： feeling or displaying no fear by temperament
 adj. （体魄等）强健的： marked by outstanding strength and vigor of body, mind, or spirit</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>the stalwart soldiers in the army of Alexander the Great, who willingly followed him to the ends of theknown world  亚历山大大帝军队中无所畏惧的士兵们，他们愿意跟随亚历山大奔赴世界的尽头
 a stalwart supporter of the UN  联合国的坚定支持者
 a lithe yet stalwart athlete  瘦小但结实的运动员</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>stamina</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>n. 耐力： physical or moral strength to resist or withstand illness, fatigue, or hardship</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A marathon challenges a runner's stamina.  马拉松挑战参赛者的耐力。</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1277,17 +1265,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>stamina</t>
+          <t>stammer</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>n. 耐力： physical or moral strength to resist or withstand illness, fatigue, or hardship</t>
+          <t>vi. 口吃，结巴： to speak with involuntary pauses or repetitions</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A marathon challenges a runner's stamina.  马拉松挑战参赛者的耐力。</t>
+          <t>The frightened child started to stammer.   受惊吓的小孩开始结巴地说话。</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1299,17 +1287,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>stammer</t>
+          <t>startle</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vi. 口吃，结巴： to speak with involuntary pauses or repetitions</t>
+          <t>vt. 使吓一跳，使大吃一惊： to frighten or surprise suddenly and usually not seriously</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The frightened child started to stammer.   受惊吓的小孩开始结巴地说话。</t>
+          <t>They were startled at the prohibitive price.  他们被高得离谱的价格吓到了</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1321,44 +1309,46 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>startle</t>
+          <t>static</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>vt. 使吓一跳，使大吃一惊： to frighten or surprise suddenly and usually not seriously</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>They were startled at the prohibitive price.  他们被高得离谱的价格吓到了</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>static</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 静态的，停滞的： characterized by a lack of movement, animation, or progression
 adj. 无改变的： showing little change</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Both your pictures are of static subjects.   你的两张照片都是静物。
 a static economy  停滞不前的经济
 a static population  没有变化的人口</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>stature</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>n. 高度，身高： natural height (as of a person) in an upright position
+n. 才干，水平： quality or status gained by growth, development, or achievement</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>a man of surprisingly great stature  拥有惊人身高的人
+This club has grown in stature over the last 20 years.   二十年间这家俱乐部的水平得到了提升。</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1368,19 +1358,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>stature</t>
+          <t>steadfast</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>n. 高度，身高： natural height (as of a person) in an upright position
-n. 才干，水平： quality or status gained by growth, development, or achievement</t>
+          <t>adj. 坚定的，忠诚的： firm in belief, determination, or adherence</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>a man of surprisingly great stature  拥有惊人身高的人
-This club has grown in stature over the last 20 years.   二十年间这家俱乐部的水平得到了提升。</t>
+          <t>Her comrades remained steadfast despite brutal tortures.   尽管有残酷的折磨，她的同志们都保持了忠诚。</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1392,17 +1380,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>steadfast</t>
+          <t>stealth</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>adj. 坚定的，忠诚的： firm in belief, determination, or adherence</t>
+          <t>n. 秘密行动： the act or action of proceeding furtively, secretly, or imperceptibly
+adj. 秘密的： intended not to attract attention</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Her comrades remained steadfast despite brutal tortures.   尽管有残酷的折磨，她的同志们都保持了忠诚。</t>
+          <t xml:space="preserve">Both sides advanced by stealth.   双方都隐秘地行军。
+The SWAT team carried out a stealth raid on the house, which was believed to be harboring a terrorist cell.  </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1414,19 +1404,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>stealth</t>
+          <t>steep</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>n. 秘密行动： the act or action of proceeding furtively, secretly, or imperceptibly
-adj. 秘密的： intended not to attract attention</t>
+          <t>vt. 浸泡： to make thoroughly wet
+adj. 陡峭的： having an incline approaching the perpendicular</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Both sides advanced by stealth.   双方都隐秘地行军。
-The SWAT team carried out a stealth raid on the house, which was believed to be harboring a terrorist cell.  </t>
+          <t>steep the tea for five minutes  浸泡茶叶五分钟
+a very steep rock face that is nearly impossible to climb  一面非常陡峭以至于不可能攀爬的岩石</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1438,19 +1428,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>steep</t>
+          <t>stench</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vt. 浸泡： to make thoroughly wet
-adj. 陡峭的： having an incline approaching the perpendicular</t>
+          <t>n. 臭气，恶臭： a strong, foul odor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>steep the tea for five minutes  浸泡茶叶五分钟
-a very steep rock face that is nearly impossible to climb  一面非常陡峭以至于不可能攀爬的岩石</t>
+          <t>We finally discovered the dead rat that was causing the stench in the living room.   我们终于发现是死老鼠带来了卧室里的恶臭。</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1462,17 +1450,18 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>stench</t>
+          <t>stentorian</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>n. 臭气，恶臭： a strong, foul odor</t>
+          <t>adj. 声音洪亮的： extremely loud</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>We finally discovered the dead rat that was causing the stench in the living room.   我们终于发现是死老鼠带来了卧室里的恶臭。</t>
+          <t>an tenor with a stentorian voice  拥有洪亮声音的男高音
+The professor's stentorian voice was enough tokeep even the drowsiest student awake.   教授洪亮的声音足以使最困的学生保持清醒。</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1484,18 +1473,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>stentorian</t>
+          <t>sterile</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 声音洪亮的： extremely loud</t>
+          <t>adj. 贫瘠的： not productive or effective
+adj. 无菌的： free from live bacteria or other microorganisms</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>an tenor with a stentorian voice  拥有洪亮声音的男高音
-The professor's stentorian voice was enough tokeep even the drowsiest student awake.   教授洪亮的声音足以使最困的学生保持清醒。</t>
+          <t>a sterile land which used to be a forest  曾经是森林的一块贫瘠土地
+The hospitals in the war-torn city often lack necessary drugs and sterile surgical supplies.   在 这 个 被 战争所蹂躏的城市中的医院通常缺乏必需的药物和无菌的手术用品。</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1507,21 +1497,15 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sterile</t>
+          <t>stickler</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 贫瘠的： not productive or effective
-adj. 无菌的： free from live bacteria or other microorganisms</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>a sterile land which used to be a forest  曾经是森林的一块贫瘠土地
-The hospitals in the war-torn city often lack necessary drugs and sterile surgical supplies.   在 这 个 被 战争所蹂躏的城市中的医院通常缺乏必需的药物和无菌的手术用品。</t>
-        </is>
-      </c>
+          <t>n. 坚持细节的人，一丝不苟的人： one who insists on exactness or completeness in the observance</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1531,28 +1515,10 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>stickler</t>
+          <t>stiff</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>n. 坚持细节的人，一丝不苟的人： one who insists on exactness or completeness in the observance</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>stiff</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
         <is>
           <t>adj. 僵硬的，无法弯曲的： lacking in suppleness or flexibility
 adj. （在社交场合）缺乏优雅的，不自在的： lacking social grace and assurance
@@ -1560,7 +1526,7 @@
 adj. 艰苦的，费力的： requiring considerable physical or mental effort</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>a stiff cardboard packing box  不易弯折的硬纸板盒
 When I got out of bed this morning my back wasstiff as a board.   今早起床时我的背和木板一样僵硬。
@@ -1569,6 +1535,28 @@
 We'll have a stiff climb to actually reach the summit.  我们还有一段艰苦的征途才能登顶。</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>stifle</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>vt. 抑制（声音、呼吸等）： to keep in or hold back</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>to stifle free expression  限制言论自由</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1578,17 +1566,18 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>stifle</t>
+          <t>stigma</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>vt. 抑制（声音、呼吸等）： to keep in or hold back</t>
+          <t>n. 耻辱，污名： a mark of shame or discredit</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>to stifle free expression  限制言论自由</t>
+          <t xml:space="preserve">the stigma of cowardice  由懦弱而带来的污点
+There's a social stigma attached to receiving welfare.  </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1600,18 +1589,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>stigma</t>
+          <t>stint</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>n. 耻辱，污名： a mark of shame or discredit</t>
+          <t>vi. 吝惜，节省： to be sparing or frugal</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">the stigma of cowardice  由懦弱而带来的污点
-There's a social stigma attached to receiving welfare.  </t>
+          <t>They never stint with their praise.  他们从不吝啬他们的赞美之词。</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1623,17 +1611,19 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>stint</t>
+          <t>stingy</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vi. 吝惜，节省： to be sparing or frugal</t>
+          <t>adj. 小气的，吝啬的： being unwilling or showing unwillingness to share with others
+adj. 极少量的： less plentiful than what is normal, necessary, or desirable</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>They never stint with their praise.  他们从不吝啬他们的赞美之词。</t>
+          <t>too stingy to tip the waiter  小气到不肯给小费
+Many people may consider this a rather stingy amount of food.   很多人都会认为这是分量比较少的食物。</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1645,19 +1635,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>stingy</t>
+          <t>stipple</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>adj. 小气的，吝啬的： being unwilling or showing unwillingness to share with others
-adj. 极少量的： less plentiful than what is normal, necessary, or desirable</t>
+          <t>vt. 点刻，用点标记： to mark with small spots especially unevenly</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>too stingy to tip the waiter  小气到不肯给小费
-Many people may consider this a rather stingy amount of food.   很多人都会认为这是分量比较少的食物。</t>
+          <t>They crossed a field stippled with purple lavender.   他们穿越了一片有紫色薰衣草点缀的田野。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1669,17 +1657,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>stipple</t>
+          <t>stipulate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>vt. 点刻，用点标记： to mark with small spots especially unevenly</t>
+          <t>vt. 规定，特定要求： to specify or arrange in an agreement</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>They crossed a field stippled with purple lavender.   他们穿越了一片有紫色薰衣草点缀的田野。</t>
+          <t>Total disarmament was stipulated in the peace treaty.   和平协约中要求彻底解除武装。</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1691,17 +1679,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>stipulate</t>
+          <t>stitch</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>vt. 规定，特定要求： to specify or arrange in an agreement</t>
+          <t>n. 突然剧痛： a sharp unpleasant sensation usually felt in some specific part of the body</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Total disarmament was stipulated in the peace treaty.   和平协约中要求彻底解除武装。</t>
+          <t>He had to drop out of the race when the stitch in his side became too painful.   因为他突然感到剧痛，所以不得不放弃比赛。</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1713,19 +1701,15 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>stock</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n. 突然剧痛： a sharp unpleasant sensation usually felt in some specific part of the body</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>He had to drop out of the race when the stitch in his side became too painful.   因为他突然感到剧痛，所以不得不放弃比赛。</t>
-        </is>
-      </c>
+          <t>n. 库存，储备： the inventory of goods of a merchant or manufacturer</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1735,15 +1719,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>stockade</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>n. 库存，储备： the inventory of goods of a merchant or manufacturer</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>n. 栅栏，围栏： an enclosure or pen made with posts and stakes
+n. 监狱： a place of confinement for persons held in lawful custody</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>a heavy stockade that protected the troops  保护驻扎部队的厚厚的栅栏
+All POWs were kept in a remote stockade.  所有的战俘都被关在一个遥远的监狱里。</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1753,19 +1743,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>stockade</t>
+          <t>stodgy</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>n. 栅栏，围栏： an enclosure or pen made with posts and stakes
-n. 监狱： a place of confinement for persons held in lawful custody</t>
+          <t>adj. 平庸的，乏味的： dull, unimaginative, and commonplace</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>a heavy stockade that protected the troops  保护驻扎部队的厚厚的栅栏
-All POWs were kept in a remote stockade.  所有的战俘都被关在一个遥远的监狱里。</t>
+          <t xml:space="preserve">The sitcom was offbeat and interesting in its first season, but has since become predictable and stodgy.  </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1777,17 +1765,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>stodgy</t>
+          <t>stoke</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>adj. 平庸的，乏味的： dull, unimaginative, and commonplace</t>
+          <t>vt. 添加燃料： supply with fuel
+vt. 增大，促进： to make greater in size, amount, or number</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">The sitcom was offbeat and interesting in its first season, but has since become predictable and stodgy.  </t>
+          <t>She was stoking the furnace.  她正用给火炉添木头。
+stoke workers’ commitment to the company by raising their salaries  通过加薪来提升员工对公司的忠诚度</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1799,19 +1789,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>stoke</t>
+          <t>stoic</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>vt. 添加燃料： supply with fuel
-vt. 增大，促进： to make greater in size, amount, or number</t>
+          <t>adj. 隐忍的，冷静的： seemingly indifferent to or unaffected by pleasure or pain</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>She was stoking the furnace.  她正用给火炉添木头。
-stoke workers’ commitment to the company by raising their salaries  通过加薪来提升员工对公司的忠诚度</t>
+          <t>stoic resignation in the face of hunger  默默忍受着饥饿</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1823,19 +1811,15 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>stoic</t>
+          <t>stolid</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 隐忍的，冷静的： seemingly indifferent to or unaffected by pleasure or pain</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>stoic resignation in the face of hunger  默默忍受着饥饿</t>
-        </is>
-      </c>
+          <t>adj. 无动于衷的，感情麻木的： having or revealing little emotion or sensibility</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1845,15 +1829,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>stolid</t>
+          <t>stomach</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 无动于衷的，感情麻木的： having or revealing little emotion or sensibility</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>v. 容忍： to bear without overt reaction or resentment</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>I can't stomach his bragging.  我受不了他自吹自擂了。</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1863,17 +1851,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>stomach</t>
+          <t>stonewall</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>v. 容忍： to bear without overt reaction or resentment</t>
+          <t>v. 拒绝（合作），阻挠： to be uncooperative, obstructive, or evasive</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>I can't stomach his bragging.  我受不了他自吹自擂了。</t>
+          <t>lobbying efforts to stonewall passage of the legislation  意在阻止法律通过的游说行动</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1885,17 +1873,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>stonewall</t>
+          <t>stouthearted</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>v. 拒绝（合作），阻挠： to be uncooperative, obstructive, or evasive</t>
+          <t>adj. 勇敢的： having a stout heart or spirit</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>lobbying efforts to stonewall passage of the legislation  意在阻止法律通过的游说行动</t>
+          <t>a stouthearted army officer who risked his life to save his men  为了拯救部下宁愿牺牲自己的勇敢军官</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1907,17 +1895,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>stouthearted</t>
+          <t>stratagem</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>adj. 勇敢的： having a stout heart or spirit</t>
+          <t>n. 谋略，策略： an artifice or trick in war for deceiving and outwitting the enemy</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>a stouthearted army officer who risked his life to save his men  为了拯救部下宁愿牺牲自己的勇敢军官</t>
+          <t>a stratagem to secure customer loyalty  用来稳固客户忠诚度的计谋</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1929,17 +1917,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>stratagem</t>
+          <t>strait</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>n. 谋略，策略： an artifice or trick in war for deceiving and outwitting the enemy</t>
+          <t>n. 海峡： a narrow channel joining two larger bodies of water
+n. 痛苦： a state of great suffering of body or mind</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>a stratagem to secure customer loyalty  用来稳固客户忠诚度的计谋</t>
+          <t>Thousands of vessels pass through the straits annually.  每年数以千计的货轮要通过这个海峡。
+in dire straits over the loss of her mother’s cherished necklace  因为丢失了母亲最珍贵的项链而陷入了极端的痛苦之中</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1951,19 +1941,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>strait</t>
+          <t>strand</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>n. 海峡： a narrow channel joining two larger bodies of water
-n. 痛苦： a state of great suffering of body or mind</t>
+          <t>n. 绳、线之一股： a single filament, such as a fiber or thread, of a woven or braided material
+v. 遗弃，使置于困境： to leave in a strange or an unfavorable place especially without funds ormeans to depart</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Thousands of vessels pass through the straits annually.  每年数以千计的货轮要通过这个海峡。
-in dire straits over the loss of her mother’s cherished necklace  因为丢失了母亲最珍贵的项链而陷入了极端的痛苦之中</t>
+          <t>a strand of DNADNA  中的一条链
+The convoy was stranded in the desert.   车队被困在了沙漠之中。</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1975,19 +1965,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>strand</t>
+          <t>stratify</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>n. 绳、线之一股： a single filament, such as a fiber or thread, of a woven or braided material
-v. 遗弃，使置于困境： to leave in a strange or an unfavorable place especially without funds ormeans to depart</t>
+          <t>vt. 使分成各种等级： to divide into classes, castes, or social strata</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>a strand of DNADNA  中的一条链
-The convoy was stranded in the desert.   车队被困在了沙漠之中。</t>
+          <t>Income distribution often stratifies a society.   收入分配往往将社会分层</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1999,17 +1987,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stratify</t>
+          <t>stray</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>vt. 使分成各种等级： to divide into classes, castes, or social strata</t>
+          <t>adj. 漫无目的的： lacking a definite plan, purpose, or pattern
+vi. 离群，迷途，偏离： to move away from a group, deviate from the correct course, or go beyondestablished limits</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Income distribution often stratifies a society.   收入分配往往将社会分层</t>
+          <t>No stray sighting of UFO’s has been rigorously analyzed by scientists.   在无规律出现的 UFO  事件之中，尚未有被科学家严谨分析的案例。
+to stray from the main road  偏离了主干道</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2021,19 +2011,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>stray</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adj. 漫无目的的： lacking a definite plan, purpose, or pattern
-vi. 离群，迷途，偏离： to move away from a group, deviate from the correct course, or go beyondestablished limits</t>
+          <t>n. 力量： the ability to exert effort for the accomplishment of a task
+n. （抵抗攻击、压力的）强度： the ability to withstand force or stress without being distorted,dislodged, or damaged</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>No stray sighting of UFO’s has been rigorously analyzed by scientists.   在无规律出现的 UFO  事件之中，尚未有被科学家严谨分析的案例。
-to stray from the main road  偏离了主干道</t>
+          <t>We are facing an army of great strength.   我们面对的是一支强大的军队。
+This cheap shelve unit doesn't have the strength to hold all those books.   这个廉价的书架不足以支撑所有的书本。</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2045,19 +2035,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>striate</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>n. 力量： the ability to exert effort for the accomplishment of a task
-n. （抵抗攻击、压力的）强度： the ability to withstand force or stress without being distorted,dislodged, or damaged</t>
+          <t>vt. 加条纹： to mark with striations or striae</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>We are facing an army of great strength.   我们面对的是一支强大的军队。
-This cheap shelve unit doesn't have the strength to hold all those books.   这个廉价的书架不足以支撑所有的书本。</t>
+          <t>The inner surface of the bark is smooth, of a pale, yellowish brown and very finely striated.   树 皮 的 内 部十分光滑，显着偏暗偏黄的棕色，并且有着十分精细的条纹。</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2069,17 +2057,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>striate</t>
+          <t>stricture</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>vt. 加条纹： to mark with striations or striae</t>
+          <t>n. 责难，批评： an adverse criticism</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>The inner surface of the bark is smooth, of a pale, yellowish brown and very finely striated.   树 皮 的 内 部十分光滑，显着偏暗偏黄的棕色，并且有着十分精细的条纹。</t>
+          <t>The reviewer made several strictures upon the author's style.  评论家就作者的文风发出了不少责难。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2091,17 +2079,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>stricture</t>
+          <t>stride</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>n. 责难，批评： an adverse criticism</t>
+          <t>vi. 迈大步走： to move with or as if with long steps</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>The reviewer made several strictures upon the author's style.  评论家就作者的文风发出了不少责难。</t>
+          <t>strode to the door and slammed it  大步走向门口，狠狠地把门摔上</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2113,17 +2101,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>stride</t>
+          <t>strident</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>vi. 迈大步走： to move with or as if with long steps</t>
+          <t>adj. 刺耳的： characterized by harsh, insistent, and discordant sound</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>strode to the door and slammed it  大步走向门口，狠狠地把门摔上</t>
+          <t>plagued by the strident noise  被刺耳的噪声所折磨</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2135,32 +2123,10 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>strident</t>
+          <t>strike</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>adj. 刺耳的： characterized by harsh, insistent, and discordant sound</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>plagued by the strident noise  被刺耳的噪声所折磨</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>strike</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
         <is>
           <t>n. 攻击： the act or action of setting upon with force or violence
 vt. 铸造（奖牌）： to form by stamping, printing, or punching
@@ -2169,7 +2135,7 @@
 vt. 撞击： to come into usually forceful contact with something</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>The first strike was directed at a munitions warehouse.   第一轮攻击的目标是军火仓库。
 angrily stuck the security guard  愤怒地殴打保安
@@ -2177,6 +2143,29 @@
 One bullet-train struck the other one which had been forced to stop on a viaduct due to lightning strike,resulting in huge casualties.  一辆动车撞向了另一辆因雷击而停在高架桥上的动车，造成了巨大的人员伤亡。</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>stringent</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>adj. 紧绷的： tight, constricted
+adj. 严格的： marked by rigor, strictness, or severity especially with regard to rule or standard</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Its drug-testing procedures are the most stringent in the world.   它的药检程序是世界上最严格的</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2186,18 +2175,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>stringent</t>
+          <t>strip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>adj. 紧绷的： tight, constricted
-adj. 严格的： marked by rigor, strictness, or severity especially with regard to rule or standard</t>
+          <t>vt. 脱衣，剥去： to remove clothing, covering, or surface matter from</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Its drug-testing procedures are the most stringent in the world.   它的药检程序是世界上最严格的</t>
+          <t>Guards stripped and start to search the prisoners.   守卫剥光了犯人，开始搜身。</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2209,17 +2197,18 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>strip</t>
+          <t>strut</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>vt. 脱衣，剥去： to remove clothing, covering, or surface matter from</t>
+          <t>vi. 趾高气扬地走： to walk with a pompous and affected air
+n. 支柱，压杆： a structural element used to brace or strengthen a framework by resisting longitudinalcompression</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Guards stripped and start to search the prisoners.   守卫剥光了犯人，开始搜身。</t>
+          <t>A pompous general strutted off the parade ground.   盛气凌人的将军从阅兵场上趾高气扬的走过</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2231,18 +2220,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>strut</t>
+          <t>studio</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>vi. 趾高气扬地走： to walk with a pompous and affected air
-n. 支柱，压杆： a structural element used to brace or strengthen a framework by resisting longitudinalcompression</t>
+          <t>n. 工作室，画室，摄影室： the working place of a painter, sculptor, or photographer</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A pompous general strutted off the parade ground.   盛气凌人的将军从阅兵场上趾高气扬的走过</t>
+          <t>moved to a larger studio  搬进了更大的工作室</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2254,17 +2242,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>studio</t>
+          <t>stultify</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n. 工作室，画室，摄影室： the working place of a painter, sculptor, or photographer</t>
+          <t>vt. 使无效，抑制： to deprive of vitality and render futile especially by enfeebling or repressiveinfluences</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>moved to a larger studio  搬进了更大的工作室</t>
+          <t>The accident stultified his previous efforts.  这场意外使他过去的努力都白费了。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2276,17 +2264,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>stultify</t>
+          <t>stupor</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. 使无效，抑制： to deprive of vitality and render futile especially by enfeebling or repressiveinfluences</t>
+          <t>n. 迟钝，麻痹，无知觉： a condition of greatly dulled or completely suspended sense or sensibility</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>The accident stultified his previous efforts.  这场意外使他过去的努力都白费了。</t>
+          <t>lapsed into an alcoholic stupor  陷入了无知觉的酒醉状态</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2298,17 +2286,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>stupor</t>
+          <t>stunt</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>n. 迟钝，麻痹，无知觉： a condition of greatly dulled or completely suspended sense or sensibility</t>
+          <t>vt. 阻碍（成长）： to hinder the normal growth, development, or progress of</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>lapsed into an alcoholic stupor  陷入了无知觉的酒醉状态</t>
+          <t>The inhospitable climate had stunted all vegetation.  不佳的气候条件抑制了所有植物的生长。</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2320,17 +2308,18 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>stunt</t>
+          <t>sturdy</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>vt. 阻碍（成长）： to hinder the normal growth, development, or progress of</t>
+          <t>adj. 强健的，结实的： marked by or reflecting physical strength or vigor; substantially made or built</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>The inhospitable climate had stunted all vegetation.  不佳的气候条件抑制了所有植物的生长。</t>
+          <t>sturdy young athletes  年轻有力的运动员
+Remember to wear sturdy boots because we will be goingover sharp rocks and uneven terrain.  别忘了穿一双靠谱的靴子，因为我们要在锋利的岩石和不平的地形上行走。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2342,18 +2331,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sturdy</t>
+          <t>stygian</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>adj. 强健的，结实的： marked by or reflecting physical strength or vigor; substantially made or built</t>
+          <t>adj. 极黑暗的： extremely dark, gloomy, or forbidding</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>sturdy young athletes  年轻有力的运动员
-Remember to wear sturdy boots because we will be goingover sharp rocks and uneven terrain.  别忘了穿一双靠谱的靴子，因为我们要在锋利的岩石和不平的地形上行走。</t>
+          <t>the stygian blackness of the cave  山洞里令人恐惧的黑暗</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2365,17 +2353,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>stygian</t>
+          <t>stymie</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj. 极黑暗的： extremely dark, gloomy, or forbidding</t>
+          <t>vt. 阻碍： to present an obstacle to</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>the stygian blackness of the cave  山洞里令人恐惧的黑暗</t>
+          <t>stymied by red tape  被冗长的政策条款所阻碍</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2387,17 +2375,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>stymie</t>
+          <t>subdue</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>vt. 阻碍： to present an obstacle to</t>
+          <t>vt. 征服；使顺从： to conquer and bring into subjection; to bring under one's control by force of arms</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>stymied by red tape  被冗长的政策条款所阻碍</t>
+          <t>subdued the native tribes after years of fighting  经过多年征战终于征服了当地的部落</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2409,17 +2397,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>subdue</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>vt. 征服；使顺从： to conquer and bring into subjection; to bring under one's control by force of arms</t>
+          <t>n. 臣民，受支配的人： one that is placed under authority or control</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>subdued the native tribes after years of fighting  经过多年征战终于征服了当地的部落</t>
+          <t>Because of the tense situation in that country, British subjects were advised to return home as soon aspossible.   因为该国紧张的局势，英国公民被建议尽快返回英国国内。</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2431,17 +2419,18 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>subjugate</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>n. 臣民，受支配的人： one that is placed under authority or control</t>
+          <t>vt. 征服，镇压： to bring under control and governance as a subject
+vt. 剥夺自由： to make subservient</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Because of the tense situation in that country, British subjects were advised to return home as soon aspossible.   因为该国紧张的局势，英国公民被建议尽快返回英国国内。</t>
+          <t>I would rather die than be subjugated.  我宁死也不愿臣服。</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2453,18 +2442,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>subjugate</t>
+          <t>sublime</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>vt. 征服，镇压： to bring under control and governance as a subject
-vt. 剥夺自由： to make subservient</t>
+          <t>adj. 崇高的，庄严的： of high spiritual, moral, or intellectual worth
+adj. （因为杰出、装光、美丽等而）令人惊叹的： tending to inspire awe usually because of elevatedquality (as of beauty, nobility, or grandeur) or transcendent excellence</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>I would rather die than be subjugated.  我宁死也不愿臣服。</t>
+          <t>the sublime virtue of having given all one's worldly goods to the poor  将所有财产都捐给穷人的崇高美德
+the sublime beauty of the canyon  峡谷令人惊叹的美丽</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2476,19 +2466,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sublime</t>
+          <t>subliminal</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. 崇高的，庄严的： of high spiritual, moral, or intellectual worth
-adj. （因为杰出、装光、美丽等而）令人惊叹的： tending to inspire awe usually because of elevatedquality (as of beauty, nobility, or grandeur) or transcendent excellence</t>
+          <t>adj. 下意识的，潜在意识的： below the threshold of conscious perception</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>the sublime virtue of having given all one's worldly goods to the poor  将所有财产都捐给穷人的崇高美德
-the sublime beauty of the canyon  峡谷令人惊叹的美丽</t>
+          <t>subliminal advertising in movies  电影中的潜意识广告</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2500,17 +2488,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>subliminal</t>
+          <t>submerge</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. 下意识的，潜在意识的： below the threshold of conscious perception</t>
+          <t>vt. 使淹没： to put under water</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>subliminal advertising in movies  电影中的潜意识广告</t>
+          <t>The river burst its banks, submerging an entire village.   河水冲上了堤岸，淹没了整个村庄。</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2522,17 +2510,18 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>submerge</t>
+          <t>submissive</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>vt. 使淹没： to put under water</t>
+          <t>adj. 服从的，顺从的，恭顺的： submitting to others</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>The river burst its banks, submerging an entire village.   河水冲上了堤岸，淹没了整个村庄。</t>
+          <t>submissive employees  恭顺的员工
+It's not in her nature to be submissive.   服从不是她的本性。</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2544,18 +2533,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>submissive</t>
+          <t>subordinate</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>adj. 服从的，顺从的，恭顺的： submitting to others</t>
+          <t>adj. 下级的，次要的： belonging to a lower or inferior class or rank</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>submissive employees  恭顺的员工
-It's not in her nature to be submissive.   服从不是她的本性。</t>
+          <t xml:space="preserve">His contention is that environment plays a subordinate role to heredity in determining what we become.  </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2567,19 +2555,15 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>subordinate</t>
+          <t>subservient</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>adj. 下级的，次要的： belonging to a lower or inferior class or rank</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">His contention is that environment plays a subordinate role to heredity in determining what we become.  </t>
-        </is>
-      </c>
+          <t>adj. 奉承的，屈从的： obsequiously submissive</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2589,39 +2573,43 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>subservient</t>
+          <t>subside</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>adj. 奉承的，屈从的： obsequiously submissive</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>subside</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
           <t>vi. 下陷，下沉，减弱： to tend downward</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>Local officials say the flood waters have subsided.   当地官员表示洪水已经退去。
 As the noise of thesiren subsided, I was able to fall back to sleep.  随着警笛声的减弱，我可以再次睡着了。
 The pain will subsidein a couple of hours.   几个小时之内疼痛感就会退去的。</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>subsidiary</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>adj. 次要的： of secondary importance</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>The river has several subsidiary streams.   这条河拥有数条支流。</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2631,17 +2619,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>subsidiary</t>
+          <t>subsidy</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>adj. 次要的： of secondary importance</t>
+          <t>n. 补助金，津贴： monetary assistance granted by a government to a person or group in support ofan enterprise regarded as being in the public interest</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>The river has several subsidiary streams.   这条河拥有数条支流。</t>
+          <t>a subsidy to manufacturers during the war  战争期间对制造商的补贴金</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2653,17 +2641,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>subsidy</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>n. 补助金，津贴： monetary assistance granted by a government to a person or group in support ofan enterprise regarded as being in the public interest</t>
+          <t>adj. 物质的： of, relating to, or having substance
+adj. 有重大意义的： considerable in importance, value, degree, amount, or extent</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>a subsidy to manufacturers during the war  战争期间对制造商的补贴金</t>
+          <t>a world of dreams, even less substantial than a rainbow  一个梦想中的世界，甚至比彩虹还虚无缥缈
+made a substantial progress  取得了实质性的进展</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2675,19 +2665,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>substantiate</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 物质的： of, relating to, or having substance
-adj. 有重大意义的： considerable in importance, value, degree, amount, or extent</t>
+          <t>vt. 证实： to support with proof or evidence
+vt 使实体化： to give material form to</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>a world of dreams, even less substantial than a rainbow  一个梦想中的世界，甚至比彩虹还虚无缥缈
-made a substantial progress  取得了实质性的进展</t>
+          <t>There is little scientific evidence to substantiate the claims.   现在还缺乏足够的科学证据来证实这种言论。
+The artist's intense feelings are substantiated by his paintings' bold colors and broad brush strokes.   画家强烈的情感通过他画作中鲜艳的色彩和很宽的笔画体现出来。</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2699,19 +2689,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>substantiate</t>
+          <t>substantive</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>vt. 证实： to support with proof or evidence
-vt 使实体化： to give material form to</t>
+          <t>adj. 本质的，关键的： of or relating to the essence or substance</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>There is little scientific evidence to substantiate the claims.   现在还缺乏足够的科学证据来证实这种言论。
-The artist's intense feelings are substantiated by his paintings' bold colors and broad brush strokes.   画家强烈的情感通过他画作中鲜艳的色彩和很宽的笔画体现出来。</t>
+          <t>The substantive information is their political stance.  关键的信息是他们的政治立场。</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2723,17 +2711,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>substantive</t>
+          <t>subterfuge</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>adj. 本质的，关键的： of or relating to the essence or substance</t>
+          <t>n. 狡计： deception by artifice or stratagem in order to conceal, escape, or evade</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>The substantive information is their political stance.  关键的信息是他们的政治立场。</t>
+          <t>The spy obtained the documents by subterfuge.  间谍通过狡猾的计谋获得了文件。</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2745,17 +2733,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>subterfuge</t>
+          <t>subtle</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>n. 狡计： deception by artifice or stratagem in order to conceal, escape, or evade</t>
+          <t>adj. 微妙的，难以感知的： (so slight as to be)difficult to understand or perceive
+adj. 巧妙的，间接或带有欺骗性的： clever at attaining one's ends by indirect and often deceptivemeans</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>The spy obtained the documents by subterfuge.  间谍通过狡猾的计谋获得了文件。</t>
+          <t>subtle differences in meaning between the words  单词词义之间的细微差别
+used subtle methods of persuasion  采用了十分巧妙的劝说方式</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2767,19 +2757,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>subtle</t>
+          <t>subvert</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adj. 微妙的，难以感知的： (so slight as to be)difficult to understand or perceive
-adj. 巧妙的，间接或带有欺骗性的： clever at attaining one's ends by indirect and often deceptivemeans</t>
+          <t>vt. 颠覆： to overturn or overthrow from the foundation</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>subtle differences in meaning between the words  单词词义之间的细微差别
-used subtle methods of persuasion  采用了十分巧妙的劝说方式</t>
+          <t>an alleged plot to subvert the state  一个谣传的旨在推翻政权的阴谋</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2791,17 +2779,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>subvert</t>
+          <t>succinct</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>vt. 颠覆： to overturn or overthrow from the foundation</t>
+          <t>adj. 简明的，简洁的： characterized by clear, precise expression in few words</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>an alleged plot to subvert the state  一个谣传的旨在推翻政权的阴谋</t>
+          <t>His speech is always succinct and perspicacious.   他的发言总是简洁而一针见血。</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2813,17 +2801,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>succinct</t>
+          <t>succor</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>adj. 简明的，简洁的： characterized by clear, precise expression in few words</t>
+          <t>vt. 救援，援助： to go to the aid of</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>His speech is always succinct and perspicacious.   他的发言总是简洁而一针见血。</t>
+          <t>We see it as our duty to succor anyone in need.  我们视帮助他人为自己的职责</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2835,17 +2823,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>succor</t>
+          <t>suffocate</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vt. 救援，援助： to go to the aid of</t>
+          <t>vt. 使窒息： to deprive of oxygen</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>We see it as our duty to succor anyone in need.  我们视帮助他人为自己的职责</t>
+          <t>The law requires the owner of a discarded refrigerator to remove its door so that a child won't get trappedinside and suffocate.   法律要求废弃冰箱的所有者移除箱门，从而防止儿童被困其中而窒息致死。</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2857,17 +2845,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>suffocate</t>
+          <t>suffuse</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vt. 使窒息： to deprive of oxygen</t>
+          <t>vt. （色彩等）弥漫，染遍，充满： to spread through or over, as with liquid, color, or light</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>The law requires the owner of a discarded refrigerator to remove its door so that a child won't get trappedinside and suffocate.   法律要求废弃冰箱的所有者移除箱门，从而防止儿童被困其中而窒息致死。</t>
+          <t>a room suffused with warm sunlight  一个充满温暖阳光的房间</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2879,17 +2867,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>suffuse</t>
+          <t>sulk</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vt. （色彩等）弥漫，染遍，充满： to spread through or over, as with liquid, color, or light</t>
+          <t>vi. 生气，愠怒： to be sullenly aloof or withdrawn, as in silent resentment or protest</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>a room suffused with warm sunlight  一个充满温暖阳光的房间</t>
+          <t>He would sulk for hours whenever he didn’t get what he want.   当他的愿望没被满足时，他会生几个小时的闷气</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2901,17 +2889,18 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>sulk</t>
+          <t>sullen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vi. 生气，愠怒： to be sullenly aloof or withdrawn, as in silent resentment or protest</t>
+          <t>adj. 闷闷不乐的： causing or marked by an atmosphere lacking in cheer</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>He would sulk for hours whenever he didn’t get what he want.   当他的愿望没被满足时，他会生几个小时的闷气</t>
+          <t>She remained sullen amid festivities alone.  她独自一人在喜庆的气氛中闷闷不乐。
+sullen skies thatmatched our mood on the day of the funeral  葬礼当天与我们很搭调的沉闷天气</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2923,18 +2912,19 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>sullen</t>
+          <t>summary</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adj. 闷闷不乐的： causing or marked by an atmosphere lacking in cheer</t>
+          <t>n. 摘要： an abstract, abridgment, or compendium especially of a preceding discourse
+adj. 就地的，立即的： done or executed on the spot and without formality</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>She remained sullen amid festivities alone.  她独自一人在喜庆的气氛中闷闷不乐。
-sullen skies thatmatched our mood on the day of the funeral  葬礼当天与我们很搭调的沉闷天气</t>
+          <t>Many book reports choose to begin with a summary of the book.   许多书评以该书的摘要开始。
+a summary trial and speedy execution  就地的判决和快速的处决</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2946,19 +2936,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>summary</t>
+          <t>summit</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>n. 摘要： an abstract, abridgment, or compendium especially of a preceding discourse
-adj. 就地的，立即的： done or executed on the spot and without formality</t>
+          <t>n. 顶点： the highest point</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Many book reports choose to begin with a summary of the book.   许多书评以该书的摘要开始。
-a summary trial and speedy execution  就地的判决和快速的处决</t>
+          <t>the summit of his ambition  他雄心壮志的顶点</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2970,17 +2958,19 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>summit</t>
+          <t>summon</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>n. 顶点： the highest point</t>
+          <t>vt. 召集，召唤： to call together
+vt. 传唤（出庭、出席）： to command by service of a summons, especially to appear in court</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>the summit of his ambition  他雄心壮志的顶点</t>
+          <t>The general summoned all his troops before the operation.   行动之前，将军把所有的部队召集到了一起。
+was summoned to answer charges  他被传唤出庭应对起诉</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2992,19 +2982,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>summon</t>
+          <t>sumptuous</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vt. 召集，召唤： to call together
-vt. 传唤（出庭、出席）： to command by service of a summons, especially to appear in court</t>
+          <t>adj. 豪华的，奢侈的： extremely costly, rich, luxurious, or magnificent</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>The general summoned all his troops before the operation.   行动之前，将军把所有的部队召集到了一起。
-was summoned to answer charges  他被传唤出庭应对起诉</t>
+          <t>The hotel claims to offer sumptuous furnishings and exquisitely prepared cuisine.   酒店宣称有奢华的装潢和精心准备的食物。</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3016,17 +3004,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sumptuous</t>
+          <t>sunder</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 豪华的，奢侈的： extremely costly, rich, luxurious, or magnificent</t>
+          <t>vt. 分裂，分离： to break apart or in two</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>The hotel claims to offer sumptuous furnishings and exquisitely prepared cuisine.   酒店宣称有奢华的装潢和精心准备的食物。</t>
+          <t>a city sundered by racial conflict  一个因种族冲突而分裂的城市</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3038,17 +3026,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sunder</t>
+          <t>supercilious</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>vt. 分裂，分离： to break apart or in two</t>
+          <t>adj. 高傲的，傲慢的： feeling or showing haughty disdain</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>a city sundered by racial conflict  一个因种族冲突而分裂的城市</t>
+          <t>The aristocrat reacted to their breach of etiquette with a supercilious smile.  贵族对破坏他们破坏礼节的行为报以傲慢的一笑。</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3060,17 +3048,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>supercilious</t>
+          <t>superficial</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 高傲的，傲慢的： feeling or showing haughty disdain</t>
+          <t>adj. 表面的，肤浅的： lacking in depth, solidity, and comprehensiveness</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>The aristocrat reacted to their breach of etiquette with a supercilious smile.  贵族对破坏他们破坏礼节的行为报以傲慢的一笑。</t>
+          <t>The official’s superficial report on the situation provoked wide blame on the Internet.  官 员 对 于 情 况 敷衍般的描述激起了网络上的广泛谴责。</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3082,17 +3070,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>superficial</t>
+          <t>superfluous</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 表面的，肤浅的： lacking in depth, solidity, and comprehensiveness</t>
+          <t>adj. 多余的，过剩的： exceeding what is sufficient or necessary</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>The official’s superficial report on the situation provoked wide blame on the Internet.  官 员 对 于 情 况 敷衍般的描述激起了网络上的广泛谴责。</t>
+          <t>a complicated algorithm that could filter all superfluous information  一个能滤除所有的多余信息的复杂算法</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3104,19 +3092,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>superfluous</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 多余的，过剩的： exceeding what is sufficient or necessary</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>a complicated algorithm that could filter all superfluous information  一个能滤除所有的多余信息的复杂算法</t>
-        </is>
-      </c>
+          <t>adj. 懒散的，懒得动的、倦怠的、消极的或漠不关心的： showing lethargy, passivity, or blameworthyindifference</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3126,15 +3110,19 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>supple</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 懒散的，懒得动的、倦怠的、消极的或漠不关心的： showing lethargy, passivity, or blameworthyindifference</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
+          <t>adj. 易弯曲的，柔软的： readily bent; pliant</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>supple limbs  柔软的四肢 || a supple mind  灵活的头脑</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3144,17 +3132,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>supple</t>
+          <t>supplant</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 易弯曲的，柔软的： readily bent; pliant</t>
+          <t>vt. 排挤，篡夺…的位置： to usurp the place of, especially through intrigue or underhanded tactics</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>supple limbs  柔软的四肢 || a supple mind  灵活的头脑</t>
+          <t>Old traditions were fading away and being supplanted by modern ways.   老传统逐渐式微，被现代方式取代。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3166,17 +3154,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>supplant</t>
+          <t>supplement</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>vt. 排挤，篡夺…的位置： to usurp the place of, especially through intrigue or underhanded tactics</t>
+          <t>n./v.增补，补充： something that serves to complete or make up for a deficiency in something else</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Old traditions were fading away and being supplanted by modern ways.   老传统逐渐式微，被现代方式取代。</t>
+          <t>recommends taking a vitamin C supplement to prevent colds  建议补充维生素 C  来预防感冒</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3188,17 +3176,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>supplement</t>
+          <t>supplicate</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>n./v.增补，补充： something that serves to complete or make up for a deficiency in something else</t>
+          <t>v. 恳求，乞求： to make a request to (someone) in an earnest or urgent manner</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>recommends taking a vitamin C supplement to prevent colds  建议补充维生素 C  来预防感冒</t>
+          <t>God is not just someone to be supplicated in times of trouble.  我们不应该只在困难时候才向主祷告。</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3210,17 +3198,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>supplicate</t>
+          <t>supposition</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>v. 恳求，乞求： to make a request to (someone) in an earnest or urgent manner</t>
+          <t>n. 猜想，推测： an opinion or judgment based on little or no evidence</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>God is not just someone to be supplicated in times of trouble.  我们不应该只在困难时候才向主祷告。</t>
+          <t>It's pure supposition on your part that there's something illegal going on next door.  你 说 隔 壁 在 进 行非法勾当纯属猜测。</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3232,17 +3220,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>supposition</t>
+          <t>suppress</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>n. 猜想，推测： an opinion or judgment based on little or no evidence</t>
+          <t>vt. 抑制（表情）： to inhibit the expression of (an impulse, for example); check</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>It's pure supposition on your part that there's something illegal going on next door.  你 说 隔 壁 在 进 行非法勾当纯属猜测。</t>
+          <t>suppress a smile  忍住笑容</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3254,17 +3242,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>suppress</t>
+          <t>surcharge</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vt. 抑制（表情）： to inhibit the expression of (an impulse, for example); check</t>
+          <t>v./n. 过高收费： to charge (someone) too much for goods or services</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>suppress a smile  忍住笑容</t>
+          <t>The airline has added a $30 fuel surcharge on all international flights.  该航空公司对所有国际航线上涨了 30 美元的燃油税。</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3276,17 +3264,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>surcharge</t>
+          <t>surfeit</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>v./n. 过高收费： to charge (someone) too much for goods or services</t>
+          <t>v./n. 过量，饮食过度： to feed or supply to excess</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>The airline has added a $30 fuel surcharge on all international flights.  该航空公司对所有国际航线上涨了 30 美元的燃油税。</t>
+          <t>He surfeited himself with chocolate.   他巧克力吃多了</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3298,17 +3286,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>surfeit</t>
+          <t>surrender</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>v./n. 过量，饮食过度： to feed or supply to excess</t>
+          <t>vt. 交出，放弃，投降： to give (something) over to the control or possession of another usually underduress
+v. 沉溺于： to give (oneself) over to something especially unrestrainedly</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>He surfeited himself with chocolate.   他巧克力吃多了</t>
+          <t>surrender a contractual right  放弃契约上规定的一项权利
+surrendered himself to grief  沉湎于悲伤</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3320,19 +3310,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>surrender</t>
+          <t>surreptitious</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>vt. 交出，放弃，投降： to give (something) over to the control or possession of another usually underduress
-v. 沉溺于： to give (oneself) over to something especially unrestrainedly</t>
+          <t>adj. 偷偷摸摸的，保密的： undertaken or done so as to escape being observed or known by others</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>surrender a contractual right  放弃契约上规定的一项权利
-surrendered himself to grief  沉湎于悲伤</t>
+          <t>took a surreptitious glance at her knees  偷偷瞟了一下她的膝盖</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3344,17 +3332,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>surreptitious</t>
+          <t>suspend</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>adj. 偷偷摸摸的，保密的： undertaken or done so as to escape being observed or known by others</t>
+          <t>vi. 暂停，中止： to bring to a formal close for a period of time
+vt. 悬挂： hang</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>took a surreptitious glance at her knees  偷偷瞟了一下她的膝盖</t>
+          <t>suspended the trial  暂停审判
+suspended a banner proclaiming the town's “Heritage Days” from the archway  在拱门上方悬挂了一条庆</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3366,19 +3356,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>suspend</t>
+          <t>suture</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>vi. 暂停，中止： to bring to a formal close for a period of time
-vt. 悬挂： hang</t>
+          <t>n./v. 缝合： the process of joining two surfaces or edges together along a line by or as if by sewing</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>suspended the trial  暂停审判
-suspended a banner proclaiming the town's “Heritage Days” from the archway  在拱门上方悬挂了一条庆</t>
+          <t>The doctor cleaned, sutured, and bandaged the wound.  医生将伤口清洗、缝合、包扎。</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3390,17 +3378,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>suture</t>
+          <t>svelte</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>n./v. 缝合： the process of joining two surfaces or edges together along a line by or as if by sewing</t>
+          <t>adj. （女人）体态苗条的，优雅的： slender or graceful in figure or outline; slim.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>The doctor cleaned, sutured, and bandaged the wound.  医生将伤口清洗、缝合、包扎。</t>
+          <t>The svelte dancer seemed to float across the stage.  苗条的舞者看起来就像在舞台上漂浮。</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3412,17 +3400,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>svelte</t>
+          <t>swagger</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>adj. （女人）体态苗条的，优雅的： slender or graceful in figure or outline; slim.</t>
+          <t>vi. 大摇大摆地走，趾高气昂地走： to conduct oneself in an arrogant or superciliously pompousmanner
+v. 自夸，吹嘘： boast, brag</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>The svelte dancer seemed to float across the stage.  苗条的舞者看起来就像在舞台上漂浮。</t>
+          <t>The young man confidently swaggered across the room.   年轻人高傲地在房间里走来走去。
+I would swagger if I'd won first place in the bowling tournament.   如果我赢了保龄球锦标赛我肯定会自夸。</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3434,19 +3424,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>swagger</t>
+          <t>swear</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>vi. 大摇大摆地走，趾高气昂地走： to conduct oneself in an arrogant or superciliously pompousmanner
-v. 自夸，吹嘘： boast, brag</t>
+          <t>vi. 咒骂： to use profane or obscene language: curse
+v. 宣誓： to promise or pledge with a solemn oath; vow</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>The young man confidently swaggered across the room.   年轻人高傲地在房间里走来走去。
-I would swagger if I'd won first place in the bowling tournament.   如果我赢了保龄球锦标赛我肯定会自夸。</t>
+          <t>no one is allowed to swear in this house  这个房间里禁止说脏话
+He swore his oath of allegiance to the queen.   他宣誓效忠女王</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3458,21 +3448,15 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>swear</t>
+          <t>sweltering</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>vi. 咒骂： to use profane or obscene language: curse
-v. 宣誓： to promise or pledge with a solemn oath; vow</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>no one is allowed to swear in this house  这个房间里禁止说脏话
-He swore his oath of allegiance to the queen.   他宣誓效忠女王</t>
-        </is>
-      </c>
+          <t>adj. 酷热的： oppressively hot</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3482,15 +3466,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sweltering</t>
+          <t>swerve</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>adj. 酷热的： oppressively hot</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>vi. 突然改变方向： to turn aside abruptly from a straight line or course</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>The car swerved sharply to avoid the squirrel in the road.   为了避开路中的松鼠，汽车猛地转向。</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3500,17 +3488,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>swerve</t>
+          <t>swill</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>vi. 突然改变方向： to turn aside abruptly from a straight line or course</t>
+          <t>vt. 痛饮，大口地吃： to drink greedily, to eat greedily or to excess</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>The car swerved sharply to avoid the squirrel in the road.   为了避开路中的松鼠，汽车猛地转向。</t>
+          <t>Considering the way she swills carbonated drinks, she ought to own stock in Pepsi company.  鉴 于 她对碳酸饮料消费的贡献，百事公司应该给她分点股份。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3522,17 +3510,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>swill</t>
+          <t>swindle</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>vt. 痛饮，大口地吃： to drink greedily, to eat greedily or to excess</t>
+          <t>vt. 欺骗，骗取： to cheat or defraud of money or property</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Considering the way she swills carbonated drinks, she ought to own stock in Pepsi company.  鉴 于 她对碳酸饮料消费的贡献，百事公司应该给她分点股份。</t>
+          <t>Hundreds of people were swindled out of their savings  几百人都被骗去了存款。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3544,17 +3532,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>swindle</t>
+          <t>sybarite</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>vt. 欺骗，骗取： to cheat or defraud of money or property</t>
+          <t>n. 沉于奢侈逸乐者，酒色之徒： a person devoted to pleasure and luxury; a voluptuary</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Hundreds of people were swindled out of their savings  几百人都被骗去了存款。</t>
+          <t>The prince was remembered as a self-indulgent sybarite.   王子酒色之徒的名声远扬。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3566,19 +3554,15 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sybarite</t>
+          <t>sycophant</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>n. 沉于奢侈逸乐者，酒色之徒： a person devoted to pleasure and luxury; a voluptuary</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>The prince was remembered as a self-indulgent sybarite.   王子酒色之徒的名声远扬。</t>
-        </is>
-      </c>
+          <t>n. 马屁精： a servile self-seeking flatterer</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3588,15 +3572,19 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>sycophant</t>
+          <t>syllabus</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>n. 马屁精： a servile self-seeking flatterer</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>n. 提纲，摘要：课文、演讲或研究课题的要点的概要或提纲： an outline or a summary of the main pointsof a text, lecture, or course of study</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Have you got next year’s syllabus? 你拿到明年的教学大纲了吗？</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3606,17 +3594,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>syllabus</t>
+          <t>syllogism</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>n. 提纲，摘要：课文、演讲或研究课题的要点的概要或提纲： an outline or a summary of the main pointsof a text, lecture, or course of study</t>
+          <t>n. 由一般到个别的推理；演绎： reasoning from the general to the specific; deduction</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Have you got next year’s syllabus? 你拿到明年的教学大纲了吗？</t>
+          <t>The syllogism was at the core of traditional deductive reasoning, where facts are determined by combiningexisting statements, in contrast to inductive reasoning where facts are determined by repeated observations.  从一般到个别的推理是传统演绎推理的核心由结合现存状态所确定，而归纳推理则由重复观测来确认。</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3628,17 +3616,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>syllogism</t>
+          <t>symbiosis</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>n. 由一般到个别的推理；演绎： reasoning from the general to the specific; deduction</t>
+          <t>n. 共生关系： the living together in more or less intimate association or close union of two dissimilar</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>The syllogism was at the core of traditional deductive reasoning, where facts are determined by combiningexisting statements, in contrast to inductive reasoning where facts are determined by repeated observations.  从一般到个别的推理是传统演绎推理的核心由结合现存状态所确定，而归纳推理则由重复观测来确认。</t>
+          <t>The bird lives in symbiosis with the hippopotamus.   这种鸟和河马是共生关系。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3650,17 +3638,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>symbiosis</t>
+          <t>symmetry</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>n. 共生关系： the living together in more or less intimate association or close union of two dissimilar</t>
+          <t>n. 对称： balanced proportions</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>The bird lives in symbiosis with the hippopotamus.   这种鸟和河马是共生关系。</t>
+          <t>The building has perfect symmetry.   这栋房子是完美的对称构造。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3672,17 +3660,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>symmetry</t>
+          <t>synchronous</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>n. 对称： balanced proportions</t>
+          <t>adj 同时期的，同相的： having identical period and phase</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>The building has perfect symmetry.   这栋房子是完美的对称构造。</t>
+          <t xml:space="preserve">The synchronous arrival of a baby sister and loss of a beloved grandmother strongly affected the girl.  </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3694,17 +3682,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>synchronous</t>
+          <t>synergic</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>adj 同时期的，同相的： having identical period and phase</t>
+          <t>adj. 合作的： working together: cooperating</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">The synchronous arrival of a baby sister and loss of a beloved grandmother strongly affected the girl.  </t>
+          <t>synergic muscles  协同肌肉</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3716,17 +3704,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>synergic</t>
+          <t>synonymous</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>adj. 合作的： working together: cooperating</t>
+          <t>adj. 同义的： having the same or a similar meaning</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>synergic muscles  协同肌肉</t>
+          <t>Paris has always been synonymous with elegance, luxury and style.   巴黎在人们心中就是优雅、奢侈、时尚的同义词。</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3738,17 +3726,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>synonymous</t>
+          <t>synopsis</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>adj. 同义的： having the same or a similar meaning</t>
+          <t>n. 摘要，概要： a brief outline or general view; an abstract or a summary.</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Paris has always been synonymous with elegance, luxury and style.   巴黎在人们心中就是优雅、奢侈、时尚的同义词。</t>
+          <t>Just give me a synopsis of the movie.  把电影的大致情节给我说说就行。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3760,17 +3748,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>synopsis</t>
+          <t>synthesis</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>n. 摘要，概要： a brief outline or general view; an abstract or a summary.</t>
+          <t>n. 合成，综合： the combination of parts or elements so as to form a whole</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Just give me a synopsis of the movie.  把电影的大致情节给我说说就行。</t>
+          <t>a philosophy that is a kind of synthesis of several schools of Western and Eastern thought  哲 学 史 东 西方很多流派思想的综合</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3782,17 +3770,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>synthesis</t>
+          <t>tacit</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 合成，综合： the combination of parts or elements so as to form a whole</t>
+          <t>adj. 暗示的： implied or indicated (as by an act or by silence) but not actually expressed</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>a philosophy that is a kind of synthesis of several schools of Western and Eastern thought  哲 学 史 东 西方很多流派思想的综合</t>
+          <t>tacit consent  默许</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3804,19 +3792,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>tacit</t>
+          <t>taciturn</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>adj. 暗示的： implied or indicated (as by an act or by silence) but not actually expressed</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>tacit consent  默许</t>
-        </is>
-      </c>
+          <t>adj. 沉默寡言的，话少的： temperamentally disinclined to talk</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3826,15 +3810,19 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>taciturn</t>
+          <t>tackle</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>adj. 沉默寡言的，话少的： temperamentally disinclined to talk</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>v. 着手处理： to start work on energetically</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Once I clean the kitchen, I think I'll tackle the bathroom.   等我把厨房收拾干净了，就去收拾浴室。</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3844,17 +3832,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>tackle</t>
+          <t>tact</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>v. 着手处理： to start work on energetically</t>
+          <t>n. 机敏，精明，不冒犯： a keen sense of what to do or say in order to maintain good relations withothers or avoid offense</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Once I clean the kitchen, I think I'll tackle the bathroom.   等我把厨房收拾干净了，就去收拾浴室。</t>
+          <t>She talked to her neighbor with supreme tact.   她和邻居说话语调十分圆滑。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3866,42 +3854,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>tact</t>
+          <t>tactile</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>n. 机敏，精明，不冒犯： a keen sense of what to do or say in order to maintain good relations withothers or avoid offense</t>
+          <t>adj. 有触觉的，能触知的： perceptible by touch: tangible</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>She talked to her neighbor with supreme tact.   她和邻居说话语调十分圆滑。</t>
+          <t>The thick brushstrokes give the painting a tactile quality.  粘稠的笔触给了这幅画一种厚实的感觉。</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>tactile</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>adj. 有触觉的，能触知的： perceptible by touch: tangible</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>The thick brushstrokes give the painting a tactile quality.  粘稠的笔触给了这幅画一种厚实的感觉。</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_8.xlsx
+++ b/result/生词本导入模版_8.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,92 +434,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>soporific</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>n. 安眠药： a drug or other substance that induces sleep</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Alcohol is a poor hypnotic because it disturbs sleep patterns, and so can worsen sleep disorders.  酒精是一种欠佳的安眠药，因为它会干扰睡眠的固定模式，从而恶化睡眠紊乱的情况。</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>soporific</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n. 安眠药： a drug or other substance that induces sleep</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Alcohol is a poor hypnotic because it disturbs sleep patterns, and so can worsen sleep disorders.  酒精是一种欠佳的安眠药，因为它会干扰睡眠的固定模式，从而恶化睡眠紊乱的情况。</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>sordid</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>adj. 肮脏的，不干净的： not clean
 adj. 卑鄙的： marked by baseness or grossness</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>I will not let my children grow up in such a sordid environment.   我绝不会让我的孩子在这样一个肮脏的环境之中成长。</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>sound</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>adj. 牢固的，不可动摇的： marked by the ability to withstand stress without structural damage ordistortion
 adj. 健康的，强壮的： free from injury or disease: exhibiting normal health
 adj. （逻辑上）严谨的： based on valid reasoning</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>The bridge is structurally sound.   这座大桥在结构上是稳固的。
 The horse is getting old, but still perfectly sound.   虽然在变老，但这匹马依然相当健康。
 Sound reasoning alone should tell you that the result is invalid.   从纯粹严谨的逻辑演绎出发，这个结论是不正确的。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sparse</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>adj. 稀疏的，稀少的： less plentiful than what is normal, necessary, or desirable</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Many slopes are rock fields with sparse vegetation.  许多山坡都是不长植物的石坡。</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -517,17 +529,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>spartan</t>
+          <t>sparse</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. 简朴的，节约的： marked by simplicity, frugality, or avoidance of luxury and comfort</t>
+          <t>adj. 稀疏的，稀少的： less plentiful than what is normal, necessary, or desirable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Accommodations on the windjammer are spartan but clean and comfortable nevertheless.   帆 船 上 的 装饰十分朴素，但还是很干净和舒适。</t>
+          <t>Many slopes are rock fields with sparse vegetation.  许多山坡都是不长植物的石坡。</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -539,81 +551,89 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>spartan</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adj. 简朴的，节约的： marked by simplicity, frugality, or avoidance of luxury and comfort</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Accommodations on the windjammer are spartan but clean and comfortable nevertheless.   帆 船 上 的 装饰十分朴素，但还是很干净和舒适。</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>spat</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>n. （小的）争吵： a brief petty quarrel or angry outburst</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Like any couple, they have their spats.  像其他夫妻一样，他们也会有争执。
 They were typical sisters,spatting one minute, playing together the next.  她们是典型的姐妹：上一分钟还在吵架，下一分钟又玩在一起了。</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>spate</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>n. 突发的洪水： sudden flood
 n. 大量： a large number or amount</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>a spate of books about GRE  很多关于 GRE  的书</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>specific</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>adj. 特有的，独特的： of a particular or exact sort
 adj. 明确的： so clearly expressed as to leave no doubt about the meaning</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>We need a specific type of pen to sign the diplomas.  我们需要一种特制的笔来签署学位证书。
 specific instructions regarding the interrogation of prisoners  有关如何审问犯人的明确指示</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>specious</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -623,19 +643,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>speck</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>n. 小点，少量： a very small amount: bit</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>She writes without even a speck of humor.  她字里行间一点幽默感也没有。</t>
-        </is>
-      </c>
+          <t>specious</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -645,113 +657,113 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>speck</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>n. 小点，少量： a very small amount: bit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>She writes without even a speck of humor.  她字里行间一点幽默感也没有。</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>spectator</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>n. 观众，目击者，旁观者： one who looks on or watches</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>join the organization as temporary spectator  作为短期观察员加入该组织
 The accident attracted alarge crowd of spectators.   事故引来了大量的围观群众。</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>spectrum</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>n. 范围，系列： a broad sequence or range of related qualities, ideas, or activities</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>the whole spectrum of 20th-century thought 20 世纪所有不同的思潮
 A political spectrum is a way ofmodeling different political positions by placing them upon one or more geometric axes symbolizing independentpolitical dimensions.   所谓的政治光谱是一种将不同的政治立场可视化的模型，它通过一根或者多根几何坐标轴来定位不同的政治态度。</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>speculate</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>vt. 推测，揣测： to take to be true on the basis of insufficient evidence
 vi. 投机倒卖： to buy or sell in expectation of profiting from market fluctuations</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>I speculate that someone has been using this cabin as a trysting place.   我猜测有情侣把这个小屋当做他们幽会的地方。
 speculating on the oil market  在石油市场上投机倒卖</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>spendthrift</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>n. 挥霍者，败家子： a person who spends improvidently or wastefully
 adj. 挥霍的，不节俭的： given to spending money freely or foolishly</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>The spendthrift managed to blow all of his inheritance in a single year.  这个败家子只用了一年就把自己继承的遗产挥霍一空。
 Spendthrift consumers amassed a mountain of debt on their credit cards.   那些爱挥霍财富的消费者们在他们的信用卡上累积了一大笔债务。</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>spent</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>adj. 精疲力竭的： drained of energy or effectiveness</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>After all that exertion, we were completely spent.   在完成所有的锻炼之后我们已是筋疲力尽。</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -761,17 +773,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>spindly</t>
+          <t>spent</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 细长纤弱的： frail or flimsy in appearance or structure</t>
+          <t>adj. 精疲力竭的： drained of energy or effectiveness</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>I prefer having rather spindly legs.  我更希望有一双细腿。</t>
+          <t>After all that exertion, we were completely spent.   在完成所有的锻炼之后我们已是筋疲力尽。</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -783,43 +795,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>spindly</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>adj. 细长纤弱的： frail or flimsy in appearance or structure</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>I prefer having rather spindly legs.  我更希望有一双细腿。</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>spiny</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>adj. 多刺的： bearingspines, prickles, or thorns
 adj. 棘手的，麻烦的： requiring exceptional skill or caution in performance or handling</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>low spiny bushes of sage  低矮多刺的长满鼠尾草的灌木丛
 This promises to be a spiny problem to negotiate.   这有可能成为谈判过程中棘手的问题。</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>spleen</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>n. 怒气，怨恨： feelings of anger or ill will often suppressed</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>She vented her spleen on her boyfriend and felt much better for having done so.   在她把怒气一股脑地倾泻到她男朋友身上之后，她感觉好多了。</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -829,17 +841,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>splice</t>
+          <t>spleen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>vt. 接合，叠接： to unite (as two ropes) by interweaving the strands, or to join (as two pieces of film)at the ends</t>
+          <t>n. 怒气，怨恨： feelings of anger or ill will often suppressed</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>He taught me to edit and splice film.   他教会我如何剪辑和叠合胶卷。</t>
+          <t>She vented her spleen on her boyfriend and felt much better for having done so.   在她把怒气一股脑地倾泻到她男朋友身上之后，她感觉好多了。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -851,17 +863,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>spontaneous</t>
+          <t>splice</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 自发的，不经思索的： acting or activated without apparent thought or deliberation</t>
+          <t>vt. 接合，叠接： to unite (as two ropes) by interweaving the strands, or to join (as two pieces of film)at the ends</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hugging a crying child is simply a spontaneous reaction.  去抱一个哭泣的小孩是很自然而然的反应。</t>
+          <t>He taught me to edit and splice film.   他教会我如何剪辑和叠合胶卷。</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -873,43 +885,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>spontaneous</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>adj. 自发的，不经思索的： acting or activated without apparent thought or deliberation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Hugging a crying child is simply a spontaneous reaction.  去抱一个哭泣的小孩是很自然而然的反应。</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>spoof</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>n. 轻松幽默的模仿，小恶搞： a work that imitates and exaggerates another work for comic effect
 v. 诱骗，诱使相信： to cause to believe what is untrue</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Many viewers thought that the spoof of a television newscast was the real thing.   许多观众认为这则新闻报道被恶搞之后的作品才是真实的东西。
 The public was spoofed by a supposedly plausible report of a UFO encounter.  一个听起来真实的 UFO  遭遇报告欺骗了大众。</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>sporadic</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>adj. 偶尔的，零星发生的： not often occurring or repeated</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>On the whole, situation has significantly improved with only sporadic disturbances.   总体而言，局势得到了明显的改善，现在只有偶尔发生的骚乱。</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -919,17 +931,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sprawl</t>
+          <t>sporadic</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>vt. 杂乱无序地发展： to grow, develop, or spread irregularly and without apparent design or plan</t>
+          <t>adj. 偶尔的，零星发生的： not often occurring or repeated</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The city sprawls down the whole coast.   城市顺着整条海岸线蔓延。</t>
+          <t>On the whole, situation has significantly improved with only sporadic disturbances.   总体而言，局势得到了明显的改善，现在只有偶尔发生的骚乱。</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -941,17 +953,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sprightly</t>
+          <t>sprawl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>adj. 活泼的，充满活力的： full of spirit and vitality</t>
+          <t>vt. 杂乱无序地发展： to grow, develop, or spread irregularly and without apparent design or plan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>He was deeply impressed by the sprightly Gypsy dance.  活力四射的吉普赛舞蹈给他留下了深刻印象。</t>
+          <t>The city sprawls down the whole coast.   城市顺着整条海岸线蔓延。</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -963,45 +975,45 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>sprightly</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>adj. 活泼的，充满活力的： full of spirit and vitality</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>He was deeply impressed by the sprightly Gypsy dance.  活力四射的吉普赛舞蹈给他留下了深刻印象。</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>spur</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>n. 刺激物： something that arouses action or activity
 n. 支撑物： a structure that holds up or serves as a foundation for something else
 vt. 刺激，激励： to incite or stimulate</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>The threat of losing its only sports franchise was the spur the city council needed to finally do somethingabout the rising crime rate.   有可能失去唯一的体育赛事举办权带来的威胁，成为了刺激市政府决定就攀升的犯罪率采取相关措施的因素。
 a weak wall that might need a spur  一面或许需要支撑的墙
 Appreciation spurred his ambition.  赞扬激起了他的雄心壮志。</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>spurious</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>adj. 假的，伪造的： lacking authenticity or validity in essence or origin; not genuine</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>In statistics, a spurious relationship is a mathematical relationship in which two events or variables have nodirect causal connection, but it may be wrongly inferred that they do, due to either coincidence or the presence ofa certain third, unseen factor.   在统计学中，“伪相关关系”是两个不存在因果关联的事件或变量，因为巧合或是不可见的第三方因素，而被误判为存在因果联系的关系。</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1011,42 +1023,42 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>spurious</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>adj. 假的，伪造的： lacking authenticity or validity in essence or origin; not genuine</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>In statistics, a spurious relationship is a mathematical relationship in which two events or variables have nodirect causal connection, but it may be wrongly inferred that they do, due to either coincidence or the presence ofa certain third, unseen factor.   在统计学中，“伪相关关系”是两个不存在因果关联的事件或变量，因为巧合或是不可见的第三方因素，而被误判为存在因果联系的关系。</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>spurn</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>vt. 摈弃，拒绝： to reject with disdain or contempt</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>spurned his recommendation  拒绝了他的推荐
 Fiercely independent, the elderly couple spurned alloffers of financial help.   这对老夫妻极其独立，回绝了所有经济上援助。</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>squabble</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>n. 口角，小争吵： a noisy quarrel, usually about a trivial matter</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>a brief squabble over what to do next  关于接下来该做什么的争吵</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1056,90 +1068,90 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>squabble</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>n. 口角，小争吵： a noisy quarrel, usually about a trivial matter</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>a brief squabble over what to do next  关于接下来该做什么的争吵</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>squalid</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>adj. 污秽的，肮脏的： dirty and wretched
 adj. 道德败坏的： morally repulsive</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>The migrants have been living in squalid conditions.  移民们一直居住在肮脏的条件下。</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>squall</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>n. （通常伴随着雨或雪的）风暴，暴风雪： a brief, sudden, violent windstorm, often accompaniedby rain or snow
 vt. 尖叫： to scream or cry loudly and harshly</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A snow squall is expected tonight.  今晚预计有暴风雪。
 The baby squalled in pain.   婴儿因为疼痛而大叫。</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>squander</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>vt. 使分散： to cause (members of a group) to move widely apart
 vt. 浪费： to spend wastefully or extravagantly</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>A single blast of the shotgun squandered the herd of deer.   猎枪的一声枪响让鹿群四处逃窜。
 He squandered his inheritance on women and gambling.  他把他继承的遗产浪费在女人和赌博上。</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>squat</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>adj. 又矮又胖的： being compact and broad in build and often short in stature</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>a squat but adroit craftsman  一个又胖又矮，但是手艺灵巧的工匠</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1149,17 +1161,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>squint</t>
+          <t>squat</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vt. 斜视，睥睨： to look or glance sideways</t>
+          <t>adj. 又矮又胖的： being compact and broad in build and often short in stature</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The driver squinted as the sun hit his windshield.   阳光使得驾驶员不得不把眼睛偏向一边</t>
+          <t>a squat but adroit craftsman  一个又胖又矮，但是手艺灵巧的工匠</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1171,91 +1183,91 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>squint</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>vt. 斜视，睥睨： to look or glance sideways</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The driver squinted as the sun hit his windshield.   阳光使得驾驶员不得不把眼睛偏向一边</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>squelch</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>vt. 压制，镇压（运动）： to put a stop to (something) by the use of force
 vt. 击溃，使无言以对： to put down or silence, as with a crushing retort</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>The authority tried to squelch the workers’ protest.   政府试图镇压工人的游行。
 His irritated glare squelched any other potential objectors.   他怒目而视，使得其他的反对者都不敢说话。</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>stabilize</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>vt./vi. 使稳定；变得稳定： to make stable, steadfast, or firm; to become stable, steadfast, or fixed</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>a policy that intended to stabilize the situation in Iraq  一 项 旨 在 维 护 伊 拉 克 局 势 稳 定 的 政 策
 Thecountry's population has stabilized at 3.  2 million.   这个国家的人口维持在三百二十万。</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>stalwart</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>adj. 无所畏惧的： feeling or displaying no fear by temperament
 adj. （体魄等）强健的： marked by outstanding strength and vigor of body, mind, or spirit</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>the stalwart soldiers in the army of Alexander the Great, who willingly followed him to the ends of theknown world  亚历山大大帝军队中无所畏惧的士兵们，他们愿意跟随亚历山大奔赴世界的尽头
 a stalwart supporter of the UN  联合国的坚定支持者
 a lithe yet stalwart athlete  瘦小但结实的运动员</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>stamina</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>n. 耐力： physical or moral strength to resist or withstand illness, fatigue, or hardship</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A marathon challenges a runner's stamina.  马拉松挑战参赛者的耐力。</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1265,17 +1277,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>stammer</t>
+          <t>stamina</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>vi. 口吃，结巴： to speak with involuntary pauses or repetitions</t>
+          <t>n. 耐力： physical or moral strength to resist or withstand illness, fatigue, or hardship</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The frightened child started to stammer.   受惊吓的小孩开始结巴地说话。</t>
+          <t>A marathon challenges a runner's stamina.  马拉松挑战参赛者的耐力。</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1287,17 +1299,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>startle</t>
+          <t>stammer</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vt. 使吓一跳，使大吃一惊： to frighten or surprise suddenly and usually not seriously</t>
+          <t>vi. 口吃，结巴： to speak with involuntary pauses or repetitions</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>They were startled at the prohibitive price.  他们被高得离谱的价格吓到了</t>
+          <t>The frightened child started to stammer.   受惊吓的小孩开始结巴地说话。</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1309,68 +1321,68 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>startle</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>vt. 使吓一跳，使大吃一惊： to frighten or surprise suddenly and usually not seriously</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>They were startled at the prohibitive price.  他们被高得离谱的价格吓到了</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>static</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 静态的，停滞的： characterized by a lack of movement, animation, or progression
 adj. 无改变的： showing little change</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Both your pictures are of static subjects.   你的两张照片都是静物。
 a static economy  停滞不前的经济
 a static population  没有变化的人口</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>stature</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>n. 高度，身高： natural height (as of a person) in an upright position
 n. 才干，水平： quality or status gained by growth, development, or achievement</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>a man of surprisingly great stature  拥有惊人身高的人
 This club has grown in stature over the last 20 years.   二十年间这家俱乐部的水平得到了提升。</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>steadfast</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>adj. 坚定的，忠诚的： firm in belief, determination, or adherence</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Her comrades remained steadfast despite brutal tortures.   尽管有残酷的折磨，她的同志们都保持了忠诚。</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1380,67 +1392,67 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>steadfast</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>adj. 坚定的，忠诚的： firm in belief, determination, or adherence</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Her comrades remained steadfast despite brutal tortures.   尽管有残酷的折磨，她的同志们都保持了忠诚。</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>stealth</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>n. 秘密行动： the act or action of proceeding furtively, secretly, or imperceptibly
 adj. 秘密的： intended not to attract attention</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">Both sides advanced by stealth.   双方都隐秘地行军。
 The SWAT team carried out a stealth raid on the house, which was believed to be harboring a terrorist cell.  </t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>steep</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>vt. 浸泡： to make thoroughly wet
 adj. 陡峭的： having an incline approaching the perpendicular</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>steep the tea for five minutes  浸泡茶叶五分钟
 a very steep rock face that is nearly impossible to climb  一面非常陡峭以至于不可能攀爬的岩石</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>stench</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>n. 臭气，恶臭： a strong, foul odor</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>We finally discovered the dead rat that was causing the stench in the living room.   我们终于发现是死老鼠带来了卧室里的恶臭。</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1450,62 +1462,66 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>stench</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>n. 臭气，恶臭： a strong, foul odor</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>We finally discovered the dead rat that was causing the stench in the living room.   我们终于发现是死老鼠带来了卧室里的恶臭。</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>stentorian</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>adj. 声音洪亮的： extremely loud</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>an tenor with a stentorian voice  拥有洪亮声音的男高音
 The professor's stentorian voice was enough tokeep even the drowsiest student awake.   教授洪亮的声音足以使最困的学生保持清醒。</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>sterile</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>adj. 贫瘠的： not productive or effective
 adj. 无菌的： free from live bacteria or other microorganisms</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>a sterile land which used to be a forest  曾经是森林的一块贫瘠土地
 The hospitals in the war-torn city often lack necessary drugs and sterile surgical supplies.   在 这 个 被 战争所蹂躏的城市中的医院通常缺乏必需的药物和无菌的手术用品。</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>stickler</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>n. 坚持细节的人，一丝不苟的人： one who insists on exactness or completeness in the observance</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1515,10 +1531,28 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>stickler</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>n. 坚持细节的人，一丝不苟的人： one who insists on exactness or completeness in the observance</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>stiff</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>adj. 僵硬的，无法弯曲的： lacking in suppleness or flexibility
 adj. （在社交场合）缺乏优雅的，不自在的： lacking social grace and assurance
@@ -1526,7 +1560,7 @@
 adj. 艰苦的，费力的： requiring considerable physical or mental effort</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>a stiff cardboard packing box  不易弯折的硬纸板盒
 When I got out of bed this morning my back wasstiff as a board.   今早起床时我的背和木板一样僵硬。
@@ -1535,28 +1569,6 @@
 We'll have a stiff climb to actually reach the summit.  我们还有一段艰苦的征途才能登顶。</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>stifle</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>vt. 抑制（声音、呼吸等）： to keep in or hold back</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>to stifle free expression  限制言论自由</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1566,42 +1578,42 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>stifle</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>vt. 抑制（声音、呼吸等）： to keep in or hold back</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>to stifle free expression  限制言论自由</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>stigma</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>n. 耻辱，污名： a mark of shame or discredit</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">the stigma of cowardice  由懦弱而带来的污点
 There's a social stigma attached to receiving welfare.  </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>stint</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>vi. 吝惜，节省： to be sparing or frugal</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>They never stint with their praise.  他们从不吝啬他们的赞美之词。</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1611,43 +1623,43 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>stint</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>vi. 吝惜，节省： to be sparing or frugal</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>They never stint with their praise.  他们从不吝啬他们的赞美之词。</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>stingy</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>adj. 小气的，吝啬的： being unwilling or showing unwillingness to share with others
 adj. 极少量的： less plentiful than what is normal, necessary, or desirable</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>too stingy to tip the waiter  小气到不肯给小费
 Many people may consider this a rather stingy amount of food.   很多人都会认为这是分量比较少的食物。</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>stipple</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>vt. 点刻，用点标记： to mark with small spots especially unevenly</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>They crossed a field stippled with purple lavender.   他们穿越了一片有紫色薰衣草点缀的田野。</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1657,17 +1669,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>stipulate</t>
+          <t>stipple</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>vt. 规定，特定要求： to specify or arrange in an agreement</t>
+          <t>vt. 点刻，用点标记： to mark with small spots especially unevenly</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Total disarmament was stipulated in the peace treaty.   和平协约中要求彻底解除武装。</t>
+          <t>They crossed a field stippled with purple lavender.   他们穿越了一片有紫色薰衣草点缀的田野。</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1679,17 +1691,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>stitch</t>
+          <t>stipulate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>n. 突然剧痛： a sharp unpleasant sensation usually felt in some specific part of the body</t>
+          <t>vt. 规定，特定要求： to specify or arrange in an agreement</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>He had to drop out of the race when the stitch in his side became too painful.   因为他突然感到剧痛，所以不得不放弃比赛。</t>
+          <t>Total disarmament was stipulated in the peace treaty.   和平协约中要求彻底解除武装。</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1701,15 +1713,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>stitch</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n. 库存，储备： the inventory of goods of a merchant or manufacturer</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>n. 突然剧痛： a sharp unpleasant sensation usually felt in some specific part of the body</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>He had to drop out of the race when the stitch in his side became too painful.   因为他突然感到剧痛，所以不得不放弃比赛。</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1719,43 +1735,39 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>n. 库存，储备： the inventory of goods of a merchant or manufacturer</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>stockade</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>n. 栅栏，围栏： an enclosure or pen made with posts and stakes
 n. 监狱： a place of confinement for persons held in lawful custody</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>a heavy stockade that protected the troops  保护驻扎部队的厚厚的栅栏
 All POWs were kept in a remote stockade.  所有的战俘都被关在一个遥远的监狱里。</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>stodgy</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>adj. 平庸的，乏味的： dull, unimaginative, and commonplace</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The sitcom was offbeat and interesting in its first season, but has since become predictable and stodgy.  </t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1765,43 +1777,43 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>stodgy</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>adj. 平庸的，乏味的： dull, unimaginative, and commonplace</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The sitcom was offbeat and interesting in its first season, but has since become predictable and stodgy.  </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>stoke</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>vt. 添加燃料： supply with fuel
 vt. 增大，促进： to make greater in size, amount, or number</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>She was stoking the furnace.  她正用给火炉添木头。
 stoke workers’ commitment to the company by raising their salaries  通过加薪来提升员工对公司的忠诚度</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>stoic</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>adj. 隐忍的，冷静的： seemingly indifferent to or unaffected by pleasure or pain</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>stoic resignation in the face of hunger  默默忍受着饥饿</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1811,15 +1823,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>stolid</t>
+          <t>stoic</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 无动于衷的，感情麻木的： having or revealing little emotion or sensibility</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>adj. 隐忍的，冷静的： seemingly indifferent to or unaffected by pleasure or pain</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>stoic resignation in the face of hunger  默默忍受着饥饿</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1829,19 +1845,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>stomach</t>
+          <t>stolid</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>v. 容忍： to bear without overt reaction or resentment</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>I can't stomach his bragging.  我受不了他自吹自擂了。</t>
-        </is>
-      </c>
+          <t>adj. 无动于衷的，感情麻木的： having or revealing little emotion or sensibility</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1851,17 +1863,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>stonewall</t>
+          <t>stomach</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>v. 拒绝（合作），阻挠： to be uncooperative, obstructive, or evasive</t>
+          <t>v. 容忍： to bear without overt reaction or resentment</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>lobbying efforts to stonewall passage of the legislation  意在阻止法律通过的游说行动</t>
+          <t>I can't stomach his bragging.  我受不了他自吹自擂了。</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1873,17 +1885,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>stouthearted</t>
+          <t>stonewall</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>adj. 勇敢的： having a stout heart or spirit</t>
+          <t>v. 拒绝（合作），阻挠： to be uncooperative, obstructive, or evasive</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>a stouthearted army officer who risked his life to save his men  为了拯救部下宁愿牺牲自己的勇敢军官</t>
+          <t>lobbying efforts to stonewall passage of the legislation  意在阻止法律通过的游说行动</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1895,17 +1907,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>stratagem</t>
+          <t>stouthearted</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>n. 谋略，策略： an artifice or trick in war for deceiving and outwitting the enemy</t>
+          <t>adj. 勇敢的： having a stout heart or spirit</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>a stratagem to secure customer loyalty  用来稳固客户忠诚度的计谋</t>
+          <t>a stouthearted army officer who risked his life to save his men  为了拯救部下宁愿牺牲自己的勇敢军官</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1917,67 +1929,67 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>stratagem</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>n. 谋略，策略： an artifice or trick in war for deceiving and outwitting the enemy</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>a stratagem to secure customer loyalty  用来稳固客户忠诚度的计谋</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>strait</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>n. 海峡： a narrow channel joining two larger bodies of water
 n. 痛苦： a state of great suffering of body or mind</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Thousands of vessels pass through the straits annually.  每年数以千计的货轮要通过这个海峡。
 in dire straits over the loss of her mother’s cherished necklace  因为丢失了母亲最珍贵的项链而陷入了极端的痛苦之中</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>strand</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>n. 绳、线之一股： a single filament, such as a fiber or thread, of a woven or braided material
 v. 遗弃，使置于困境： to leave in a strange or an unfavorable place especially without funds ormeans to depart</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>a strand of DNADNA  中的一条链
 The convoy was stranded in the desert.   车队被困在了沙漠之中。</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>stratify</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>vt. 使分成各种等级： to divide into classes, castes, or social strata</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Income distribution often stratifies a society.   收入分配往往将社会分层</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1987,67 +1999,67 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>stratify</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>vt. 使分成各种等级： to divide into classes, castes, or social strata</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Income distribution often stratifies a society.   收入分配往往将社会分层</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>stray</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>adj. 漫无目的的： lacking a definite plan, purpose, or pattern
 vi. 离群，迷途，偏离： to move away from a group, deviate from the correct course, or go beyondestablished limits</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>No stray sighting of UFO’s has been rigorously analyzed by scientists.   在无规律出现的 UFO  事件之中，尚未有被科学家严谨分析的案例。
 to stray from the main road  偏离了主干道</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>strength</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>n. 力量： the ability to exert effort for the accomplishment of a task
 n. （抵抗攻击、压力的）强度： the ability to withstand force or stress without being distorted,dislodged, or damaged</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>We are facing an army of great strength.   我们面对的是一支强大的军队。
 This cheap shelve unit doesn't have the strength to hold all those books.   这个廉价的书架不足以支撑所有的书本。</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>striate</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>vt. 加条纹： to mark with striations or striae</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>The inner surface of the bark is smooth, of a pale, yellowish brown and very finely striated.   树 皮 的 内 部十分光滑，显着偏暗偏黄的棕色，并且有着十分精细的条纹。</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2057,17 +2069,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>stricture</t>
+          <t>striate</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>n. 责难，批评： an adverse criticism</t>
+          <t>vt. 加条纹： to mark with striations or striae</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>The reviewer made several strictures upon the author's style.  评论家就作者的文风发出了不少责难。</t>
+          <t>The inner surface of the bark is smooth, of a pale, yellowish brown and very finely striated.   树 皮 的 内 部十分光滑，显着偏暗偏黄的棕色，并且有着十分精细的条纹。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2079,17 +2091,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>stride</t>
+          <t>stricture</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>vi. 迈大步走： to move with or as if with long steps</t>
+          <t>n. 责难，批评： an adverse criticism</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>strode to the door and slammed it  大步走向门口，狠狠地把门摔上</t>
+          <t>The reviewer made several strictures upon the author's style.  评论家就作者的文风发出了不少责难。</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2101,17 +2113,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>strident</t>
+          <t>stride</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>adj. 刺耳的： characterized by harsh, insistent, and discordant sound</t>
+          <t>vi. 迈大步走： to move with or as if with long steps</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>plagued by the strident noise  被刺耳的噪声所折磨</t>
+          <t>strode to the door and slammed it  大步走向门口，狠狠地把门摔上</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2123,10 +2135,32 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>strident</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>adj. 刺耳的： characterized by harsh, insistent, and discordant sound</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>plagued by the strident noise  被刺耳的噪声所折磨</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>n. 攻击： the act or action of setting upon with force or violence
 vt. 铸造（奖牌）： to form by stamping, printing, or punching
@@ -2135,7 +2169,7 @@
 vt. 撞击： to come into usually forceful contact with something</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>The first strike was directed at a munitions warehouse.   第一轮攻击的目标是军火仓库。
 angrily stuck the security guard  愤怒地殴打保安
@@ -2143,49 +2177,27 @@
 One bullet-train struck the other one which had been forced to stop on a viaduct due to lightning strike,resulting in huge casualties.  一辆动车撞向了另一辆因雷击而停在高架桥上的动车，造成了巨大的人员伤亡。</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>stringent</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>adj. 紧绷的： tight, constricted
 adj. 严格的： marked by rigor, strictness, or severity especially with regard to rule or standard</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Its drug-testing procedures are the most stringent in the world.   它的药检程序是世界上最严格的</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>strip</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>vt. 脱衣，剥去： to remove clothing, covering, or surface matter from</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Guards stripped and start to search the prisoners.   守卫剥光了犯人，开始搜身。</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2197,40 +2209,40 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>strip</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>vt. 脱衣，剥去： to remove clothing, covering, or surface matter from</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Guards stripped and start to search the prisoners.   守卫剥光了犯人，开始搜身。</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>strut</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>vi. 趾高气扬地走： to walk with a pompous and affected air
 n. 支柱，压杆： a structural element used to brace or strengthen a framework by resisting longitudinalcompression</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>A pompous general strutted off the parade ground.   盛气凌人的将军从阅兵场上趾高气扬的走过</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>studio</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>n. 工作室，画室，摄影室： the working place of a painter, sculptor, or photographer</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>moved to a larger studio  搬进了更大的工作室</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2242,17 +2254,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>stultify</t>
+          <t>studio</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 使无效，抑制： to deprive of vitality and render futile especially by enfeebling or repressiveinfluences</t>
+          <t>n. 工作室，画室，摄影室： the working place of a painter, sculptor, or photographer</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>The accident stultified his previous efforts.  这场意外使他过去的努力都白费了。</t>
+          <t>moved to a larger studio  搬进了更大的工作室</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2264,17 +2276,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>stupor</t>
+          <t>stultify</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>n. 迟钝，麻痹，无知觉： a condition of greatly dulled or completely suspended sense or sensibility</t>
+          <t>vt. 使无效，抑制： to deprive of vitality and render futile especially by enfeebling or repressiveinfluences</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>lapsed into an alcoholic stupor  陷入了无知觉的酒醉状态</t>
+          <t>The accident stultified his previous efforts.  这场意外使他过去的努力都白费了。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2286,17 +2298,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>stunt</t>
+          <t>stupor</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vt. 阻碍（成长）： to hinder the normal growth, development, or progress of</t>
+          <t>n. 迟钝，麻痹，无知觉： a condition of greatly dulled or completely suspended sense or sensibility</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>The inhospitable climate had stunted all vegetation.  不佳的气候条件抑制了所有植物的生长。</t>
+          <t>lapsed into an alcoholic stupor  陷入了无知觉的酒醉状态</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2308,42 +2320,42 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>stunt</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>vt. 阻碍（成长）： to hinder the normal growth, development, or progress of</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>The inhospitable climate had stunted all vegetation.  不佳的气候条件抑制了所有植物的生长。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>sturdy</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>adj. 强健的，结实的： marked by or reflecting physical strength or vigor; substantially made or built</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>sturdy young athletes  年轻有力的运动员
 Remember to wear sturdy boots because we will be goingover sharp rocks and uneven terrain.  别忘了穿一双靠谱的靴子，因为我们要在锋利的岩石和不平的地形上行走。</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>stygian</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>adj. 极黑暗的： extremely dark, gloomy, or forbidding</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>the stygian blackness of the cave  山洞里令人恐惧的黑暗</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2353,17 +2365,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>stymie</t>
+          <t>stygian</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>vt. 阻碍： to present an obstacle to</t>
+          <t>adj. 极黑暗的： extremely dark, gloomy, or forbidding</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>stymied by red tape  被冗长的政策条款所阻碍</t>
+          <t>the stygian blackness of the cave  山洞里令人恐惧的黑暗</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2375,17 +2387,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>subdue</t>
+          <t>stymie</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>vt. 征服；使顺从： to conquer and bring into subjection; to bring under one's control by force of arms</t>
+          <t>vt. 阻碍： to present an obstacle to</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>subdued the native tribes after years of fighting  经过多年征战终于征服了当地的部落</t>
+          <t>stymied by red tape  被冗长的政策条款所阻碍</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2397,17 +2409,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>subdue</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>n. 臣民，受支配的人： one that is placed under authority or control</t>
+          <t>vt. 征服；使顺从： to conquer and bring into subjection; to bring under one's control by force of arms</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Because of the tense situation in that country, British subjects were advised to return home as soon aspossible.   因为该国紧张的局势，英国公民被建议尽快返回英国国内。</t>
+          <t>subdued the native tribes after years of fighting  经过多年征战终于征服了当地的部落</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2419,66 +2431,66 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>n. 臣民，受支配的人： one that is placed under authority or control</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Because of the tense situation in that country, British subjects were advised to return home as soon aspossible.   因为该国紧张的局势，英国公民被建议尽快返回英国国内。</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>subjugate</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>vt. 征服，镇压： to bring under control and governance as a subject
 vt. 剥夺自由： to make subservient</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>I would rather die than be subjugated.  我宁死也不愿臣服。</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>sublime</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>adj. 崇高的，庄严的： of high spiritual, moral, or intellectual worth
 adj. （因为杰出、装光、美丽等而）令人惊叹的： tending to inspire awe usually because of elevatedquality (as of beauty, nobility, or grandeur) or transcendent excellence</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>the sublime virtue of having given all one's worldly goods to the poor  将所有财产都捐给穷人的崇高美德
 the sublime beauty of the canyon  峡谷令人惊叹的美丽</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>subliminal</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>adj. 下意识的，潜在意识的： below the threshold of conscious perception</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>subliminal advertising in movies  电影中的潜意识广告</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2488,17 +2500,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>submerge</t>
+          <t>subliminal</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>vt. 使淹没： to put under water</t>
+          <t>adj. 下意识的，潜在意识的： below the threshold of conscious perception</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>The river burst its banks, submerging an entire village.   河水冲上了堤岸，淹没了整个村庄。</t>
+          <t>subliminal advertising in movies  电影中的潜意识广告</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2510,42 +2522,42 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>submerge</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>vt. 使淹没： to put under water</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>The river burst its banks, submerging an entire village.   河水冲上了堤岸，淹没了整个村庄。</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>submissive</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>adj. 服从的，顺从的，恭顺的： submitting to others</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>submissive employees  恭顺的员工
 It's not in her nature to be submissive.   服从不是她的本性。</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>subordinate</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>adj. 下级的，次要的： belonging to a lower or inferior class or rank</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">His contention is that environment plays a subordinate role to heredity in determining what we become.  </t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2555,15 +2567,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>subservient</t>
+          <t>subordinate</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>adj. 奉承的，屈从的： obsequiously submissive</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>adj. 下级的，次要的： belonging to a lower or inferior class or rank</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">His contention is that environment plays a subordinate role to heredity in determining what we become.  </t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2573,43 +2589,39 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>subservient</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>adj. 奉承的，屈从的： obsequiously submissive</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
           <t>subside</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>vi. 下陷，下沉，减弱： to tend downward</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Local officials say the flood waters have subsided.   当地官员表示洪水已经退去。
 As the noise of thesiren subsided, I was able to fall back to sleep.  随着警笛声的减弱，我可以再次睡着了。
 The pain will subsidein a couple of hours.   几个小时之内疼痛感就会退去的。</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>subsidiary</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>adj. 次要的： of secondary importance</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>The river has several subsidiary streams.   这条河拥有数条支流。</t>
-        </is>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2619,17 +2631,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>subsidy</t>
+          <t>subsidiary</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n. 补助金，津贴： monetary assistance granted by a government to a person or group in support ofan enterprise regarded as being in the public interest</t>
+          <t>adj. 次要的： of secondary importance</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>a subsidy to manufacturers during the war  战争期间对制造商的补贴金</t>
+          <t>The river has several subsidiary streams.   这条河拥有数条支流。</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2641,67 +2653,67 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>subsidy</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>n. 补助金，津贴： monetary assistance granted by a government to a person or group in support ofan enterprise regarded as being in the public interest</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>a subsidy to manufacturers during the war  战争期间对制造商的补贴金</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>substantial</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>adj. 物质的： of, relating to, or having substance
 adj. 有重大意义的： considerable in importance, value, degree, amount, or extent</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>a world of dreams, even less substantial than a rainbow  一个梦想中的世界，甚至比彩虹还虚无缥缈
 made a substantial progress  取得了实质性的进展</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>substantiate</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>vt. 证实： to support with proof or evidence
 vt 使实体化： to give material form to</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>There is little scientific evidence to substantiate the claims.   现在还缺乏足够的科学证据来证实这种言论。
 The artist's intense feelings are substantiated by his paintings' bold colors and broad brush strokes.   画家强烈的情感通过他画作中鲜艳的色彩和很宽的笔画体现出来。</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>substantive</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>adj. 本质的，关键的： of or relating to the essence or substance</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>The substantive information is their political stance.  关键的信息是他们的政治立场。</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2711,17 +2723,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>subterfuge</t>
+          <t>substantive</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>n. 狡计： deception by artifice or stratagem in order to conceal, escape, or evade</t>
+          <t>adj. 本质的，关键的： of or relating to the essence or substance</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>The spy obtained the documents by subterfuge.  间谍通过狡猾的计谋获得了文件。</t>
+          <t>The substantive information is their political stance.  关键的信息是他们的政治立场。</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2733,43 +2745,43 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>subterfuge</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>n. 狡计： deception by artifice or stratagem in order to conceal, escape, or evade</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>The spy obtained the documents by subterfuge.  间谍通过狡猾的计谋获得了文件。</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
           <t>subtle</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>adj. 微妙的，难以感知的： (so slight as to be)difficult to understand or perceive
 adj. 巧妙的，间接或带有欺骗性的： clever at attaining one's ends by indirect and often deceptivemeans</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>subtle differences in meaning between the words  单词词义之间的细微差别
 used subtle methods of persuasion  采用了十分巧妙的劝说方式</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>subvert</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>vt. 颠覆： to overturn or overthrow from the foundation</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>an alleged plot to subvert the state  一个谣传的旨在推翻政权的阴谋</t>
-        </is>
-      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2779,17 +2791,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>succinct</t>
+          <t>subvert</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>adj. 简明的，简洁的： characterized by clear, precise expression in few words</t>
+          <t>vt. 颠覆： to overturn or overthrow from the foundation</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>His speech is always succinct and perspicacious.   他的发言总是简洁而一针见血。</t>
+          <t>an alleged plot to subvert the state  一个谣传的旨在推翻政权的阴谋</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2801,17 +2813,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>succor</t>
+          <t>succinct</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vt. 救援，援助： to go to the aid of</t>
+          <t>adj. 简明的，简洁的： characterized by clear, precise expression in few words</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>We see it as our duty to succor anyone in need.  我们视帮助他人为自己的职责</t>
+          <t>His speech is always succinct and perspicacious.   他的发言总是简洁而一针见血。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2823,17 +2835,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>suffocate</t>
+          <t>succor</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vt. 使窒息： to deprive of oxygen</t>
+          <t>vt. 救援，援助： to go to the aid of</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>The law requires the owner of a discarded refrigerator to remove its door so that a child won't get trappedinside and suffocate.   法律要求废弃冰箱的所有者移除箱门，从而防止儿童被困其中而窒息致死。</t>
+          <t>We see it as our duty to succor anyone in need.  我们视帮助他人为自己的职责</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2845,17 +2857,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>suffuse</t>
+          <t>suffocate</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vt. （色彩等）弥漫，染遍，充满： to spread through or over, as with liquid, color, or light</t>
+          <t>vt. 使窒息： to deprive of oxygen</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>a room suffused with warm sunlight  一个充满温暖阳光的房间</t>
+          <t>The law requires the owner of a discarded refrigerator to remove its door so that a child won't get trappedinside and suffocate.   法律要求废弃冰箱的所有者移除箱门，从而防止儿童被困其中而窒息致死。</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2867,17 +2879,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sulk</t>
+          <t>suffuse</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vi. 生气，愠怒： to be sullenly aloof or withdrawn, as in silent resentment or protest</t>
+          <t>vt. （色彩等）弥漫，染遍，充满： to spread through or over, as with liquid, color, or light</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>He would sulk for hours whenever he didn’t get what he want.   当他的愿望没被满足时，他会生几个小时的闷气</t>
+          <t>a room suffused with warm sunlight  一个充满温暖阳光的房间</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2889,66 +2901,66 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>sulk</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>vi. 生气，愠怒： to be sullenly aloof or withdrawn, as in silent resentment or protest</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>He would sulk for hours whenever he didn’t get what he want.   当他的愿望没被满足时，他会生几个小时的闷气</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>sullen</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>adj. 闷闷不乐的： causing or marked by an atmosphere lacking in cheer</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>She remained sullen amid festivities alone.  她独自一人在喜庆的气氛中闷闷不乐。
 sullen skies thatmatched our mood on the day of the funeral  葬礼当天与我们很搭调的沉闷天气</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>n. 摘要： an abstract, abridgment, or compendium especially of a preceding discourse
 adj. 就地的，立即的： done or executed on the spot and without formality</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Many book reports choose to begin with a summary of the book.   许多书评以该书的摘要开始。
 a summary trial and speedy execution  就地的判决和快速的处决</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>summit</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>n. 顶点： the highest point</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>the summit of his ambition  他雄心壮志的顶点</t>
-        </is>
-      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2958,43 +2970,43 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>summit</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>n. 顶点： the highest point</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>the summit of his ambition  他雄心壮志的顶点</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>summon</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>vt. 召集，召唤： to call together
 vt. 传唤（出庭、出席）： to command by service of a summons, especially to appear in court</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>The general summoned all his troops before the operation.   行动之前，将军把所有的部队召集到了一起。
 was summoned to answer charges  他被传唤出庭应对起诉</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>sumptuous</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>adj. 豪华的，奢侈的： extremely costly, rich, luxurious, or magnificent</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>The hotel claims to offer sumptuous furnishings and exquisitely prepared cuisine.   酒店宣称有奢华的装潢和精心准备的食物。</t>
-        </is>
-      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3004,17 +3016,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sunder</t>
+          <t>sumptuous</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vt. 分裂，分离： to break apart or in two</t>
+          <t>adj. 豪华的，奢侈的： extremely costly, rich, luxurious, or magnificent</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>a city sundered by racial conflict  一个因种族冲突而分裂的城市</t>
+          <t>The hotel claims to offer sumptuous furnishings and exquisitely prepared cuisine.   酒店宣称有奢华的装潢和精心准备的食物。</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3026,17 +3038,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>supercilious</t>
+          <t>sunder</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 高傲的，傲慢的： feeling or showing haughty disdain</t>
+          <t>vt. 分裂，分离： to break apart or in two</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>The aristocrat reacted to their breach of etiquette with a supercilious smile.  贵族对破坏他们破坏礼节的行为报以傲慢的一笑。</t>
+          <t>a city sundered by racial conflict  一个因种族冲突而分裂的城市</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3048,17 +3060,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>superficial</t>
+          <t>supercilious</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 表面的，肤浅的： lacking in depth, solidity, and comprehensiveness</t>
+          <t>adj. 高傲的，傲慢的： feeling or showing haughty disdain</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>The official’s superficial report on the situation provoked wide blame on the Internet.  官 员 对 于 情 况 敷衍般的描述激起了网络上的广泛谴责。</t>
+          <t>The aristocrat reacted to their breach of etiquette with a supercilious smile.  贵族对破坏他们破坏礼节的行为报以傲慢的一笑。</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3070,17 +3082,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>superfluous</t>
+          <t>superficial</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 多余的，过剩的： exceeding what is sufficient or necessary</t>
+          <t>adj. 表面的，肤浅的： lacking in depth, solidity, and comprehensiveness</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>a complicated algorithm that could filter all superfluous information  一个能滤除所有的多余信息的复杂算法</t>
+          <t>The official’s superficial report on the situation provoked wide blame on the Internet.  官 员 对 于 情 况 敷衍般的描述激起了网络上的广泛谴责。</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3092,15 +3104,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>superfluous</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 懒散的，懒得动的、倦怠的、消极的或漠不关心的： showing lethargy, passivity, or blameworthyindifference</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>adj. 多余的，过剩的： exceeding what is sufficient or necessary</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>a complicated algorithm that could filter all superfluous information  一个能滤除所有的多余信息的复杂算法</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3110,19 +3126,15 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>supple</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 易弯曲的，柔软的： readily bent; pliant</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>supple limbs  柔软的四肢 || a supple mind  灵活的头脑</t>
-        </is>
-      </c>
+          <t>adj. 懒散的，懒得动的、倦怠的、消极的或漠不关心的： showing lethargy, passivity, or blameworthyindifference</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3132,17 +3144,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>supplant</t>
+          <t>supple</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vt. 排挤，篡夺…的位置： to usurp the place of, especially through intrigue or underhanded tactics</t>
+          <t>adj. 易弯曲的，柔软的： readily bent; pliant</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Old traditions were fading away and being supplanted by modern ways.   老传统逐渐式微，被现代方式取代。</t>
+          <t>supple limbs  柔软的四肢 || a supple mind  灵活的头脑</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3154,17 +3166,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>supplement</t>
+          <t>supplant</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>n./v.增补，补充： something that serves to complete or make up for a deficiency in something else</t>
+          <t>vt. 排挤，篡夺…的位置： to usurp the place of, especially through intrigue or underhanded tactics</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>recommends taking a vitamin C supplement to prevent colds  建议补充维生素 C  来预防感冒</t>
+          <t>Old traditions were fading away and being supplanted by modern ways.   老传统逐渐式微，被现代方式取代。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3176,17 +3188,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>supplicate</t>
+          <t>supplement</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>v. 恳求，乞求： to make a request to (someone) in an earnest or urgent manner</t>
+          <t>n./v.增补，补充： something that serves to complete or make up for a deficiency in something else</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>God is not just someone to be supplicated in times of trouble.  我们不应该只在困难时候才向主祷告。</t>
+          <t>recommends taking a vitamin C supplement to prevent colds  建议补充维生素 C  来预防感冒</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3198,17 +3210,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>supposition</t>
+          <t>supplicate</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>n. 猜想，推测： an opinion or judgment based on little or no evidence</t>
+          <t>v. 恳求，乞求： to make a request to (someone) in an earnest or urgent manner</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>It's pure supposition on your part that there's something illegal going on next door.  你 说 隔 壁 在 进 行非法勾当纯属猜测。</t>
+          <t>God is not just someone to be supplicated in times of trouble.  我们不应该只在困难时候才向主祷告。</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3220,17 +3232,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>suppress</t>
+          <t>supposition</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>vt. 抑制（表情）： to inhibit the expression of (an impulse, for example); check</t>
+          <t>n. 猜想，推测： an opinion or judgment based on little or no evidence</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>suppress a smile  忍住笑容</t>
+          <t>It's pure supposition on your part that there's something illegal going on next door.  你 说 隔 壁 在 进 行非法勾当纯属猜测。</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3242,17 +3254,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>surcharge</t>
+          <t>suppress</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>v./n. 过高收费： to charge (someone) too much for goods or services</t>
+          <t>vt. 抑制（表情）： to inhibit the expression of (an impulse, for example); check</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>The airline has added a $30 fuel surcharge on all international flights.  该航空公司对所有国际航线上涨了 30 美元的燃油税。</t>
+          <t>suppress a smile  忍住笑容</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3264,17 +3276,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>surfeit</t>
+          <t>surcharge</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>v./n. 过量，饮食过度： to feed or supply to excess</t>
+          <t>v./n. 过高收费： to charge (someone) too much for goods or services</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>He surfeited himself with chocolate.   他巧克力吃多了</t>
+          <t>The airline has added a $30 fuel surcharge on all international flights.  该航空公司对所有国际航线上涨了 30 美元的燃油税。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3286,43 +3298,43 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>surfeit</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>v./n. 过量，饮食过度： to feed or supply to excess</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>He surfeited himself with chocolate.   他巧克力吃多了</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>surrender</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 交出，放弃，投降： to give (something) over to the control or possession of another usually underduress
 v. 沉溺于： to give (oneself) over to something especially unrestrainedly</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>surrender a contractual right  放弃契约上规定的一项权利
 surrendered himself to grief  沉湎于悲伤</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>surreptitious</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>adj. 偷偷摸摸的，保密的： undertaken or done so as to escape being observed or known by others</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>took a surreptitious glance at her knees  偷偷瞟了一下她的膝盖</t>
-        </is>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3332,43 +3344,43 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>surreptitious</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>adj. 偷偷摸摸的，保密的： undertaken or done so as to escape being observed or known by others</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>took a surreptitious glance at her knees  偷偷瞟了一下她的膝盖</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
           <t>suspend</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>vi. 暂停，中止： to bring to a formal close for a period of time
 vt. 悬挂： hang</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>suspended the trial  暂停审判
 suspended a banner proclaiming the town's “Heritage Days” from the archway  在拱门上方悬挂了一条庆</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>suture</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>n./v. 缝合： the process of joining two surfaces or edges together along a line by or as if by sewing</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>The doctor cleaned, sutured, and bandaged the wound.  医生将伤口清洗、缝合、包扎。</t>
-        </is>
-      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3378,17 +3390,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>svelte</t>
+          <t>suture</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>adj. （女人）体态苗条的，优雅的： slender or graceful in figure or outline; slim.</t>
+          <t>n./v. 缝合： the process of joining two surfaces or edges together along a line by or as if by sewing</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>The svelte dancer seemed to float across the stage.  苗条的舞者看起来就像在舞台上漂浮。</t>
+          <t>The doctor cleaned, sutured, and bandaged the wound.  医生将伤口清洗、缝合、包扎。</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3400,63 +3412,67 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>svelte</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>adj. （女人）体态苗条的，优雅的： slender or graceful in figure or outline; slim.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>The svelte dancer seemed to float across the stage.  苗条的舞者看起来就像在舞台上漂浮。</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
           <t>swagger</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>vi. 大摇大摆地走，趾高气昂地走： to conduct oneself in an arrogant or superciliously pompousmanner
 v. 自夸，吹嘘： boast, brag</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>The young man confidently swaggered across the room.   年轻人高傲地在房间里走来走去。
 I would swagger if I'd won first place in the bowling tournament.   如果我赢了保龄球锦标赛我肯定会自夸。</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>swear</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>vi. 咒骂： to use profane or obscene language: curse
 v. 宣誓： to promise or pledge with a solemn oath; vow</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>no one is allowed to swear in this house  这个房间里禁止说脏话
 He swore his oath of allegiance to the queen.   他宣誓效忠女王</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>sweltering</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>adj. 酷热的： oppressively hot</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3466,19 +3482,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>swerve</t>
+          <t>sweltering</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>vi. 突然改变方向： to turn aside abruptly from a straight line or course</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>The car swerved sharply to avoid the squirrel in the road.   为了避开路中的松鼠，汽车猛地转向。</t>
-        </is>
-      </c>
+          <t>adj. 酷热的： oppressively hot</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3488,17 +3500,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>swill</t>
+          <t>swerve</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>vt. 痛饮，大口地吃： to drink greedily, to eat greedily or to excess</t>
+          <t>vi. 突然改变方向： to turn aside abruptly from a straight line or course</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Considering the way she swills carbonated drinks, she ought to own stock in Pepsi company.  鉴 于 她对碳酸饮料消费的贡献，百事公司应该给她分点股份。</t>
+          <t>The car swerved sharply to avoid the squirrel in the road.   为了避开路中的松鼠，汽车猛地转向。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3510,17 +3522,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>swindle</t>
+          <t>swill</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>vt. 欺骗，骗取： to cheat or defraud of money or property</t>
+          <t>vt. 痛饮，大口地吃： to drink greedily, to eat greedily or to excess</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Hundreds of people were swindled out of their savings  几百人都被骗去了存款。</t>
+          <t>Considering the way she swills carbonated drinks, she ought to own stock in Pepsi company.  鉴 于 她对碳酸饮料消费的贡献，百事公司应该给她分点股份。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3532,17 +3544,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>sybarite</t>
+          <t>swindle</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>n. 沉于奢侈逸乐者，酒色之徒： a person devoted to pleasure and luxury; a voluptuary</t>
+          <t>vt. 欺骗，骗取： to cheat or defraud of money or property</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>The prince was remembered as a self-indulgent sybarite.   王子酒色之徒的名声远扬。</t>
+          <t>Hundreds of people were swindled out of their savings  几百人都被骗去了存款。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3554,15 +3566,19 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sycophant</t>
+          <t>sybarite</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>n. 马屁精： a servile self-seeking flatterer</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>n. 沉于奢侈逸乐者，酒色之徒： a person devoted to pleasure and luxury; a voluptuary</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>The prince was remembered as a self-indulgent sybarite.   王子酒色之徒的名声远扬。</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3572,19 +3588,15 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>syllabus</t>
+          <t>sycophant</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>n. 提纲，摘要：课文、演讲或研究课题的要点的概要或提纲： an outline or a summary of the main pointsof a text, lecture, or course of study</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Have you got next year’s syllabus? 你拿到明年的教学大纲了吗？</t>
-        </is>
-      </c>
+          <t>n. 马屁精： a servile self-seeking flatterer</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3594,17 +3606,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>syllogism</t>
+          <t>syllabus</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>n. 由一般到个别的推理；演绎： reasoning from the general to the specific; deduction</t>
+          <t>n. 提纲，摘要：课文、演讲或研究课题的要点的概要或提纲： an outline or a summary of the main pointsof a text, lecture, or course of study</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>The syllogism was at the core of traditional deductive reasoning, where facts are determined by combiningexisting statements, in contrast to inductive reasoning where facts are determined by repeated observations.  从一般到个别的推理是传统演绎推理的核心由结合现存状态所确定，而归纳推理则由重复观测来确认。</t>
+          <t>Have you got next year’s syllabus? 你拿到明年的教学大纲了吗？</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3616,17 +3628,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>symbiosis</t>
+          <t>syllogism</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>n. 共生关系： the living together in more or less intimate association or close union of two dissimilar</t>
+          <t>n. 由一般到个别的推理；演绎： reasoning from the general to the specific; deduction</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>The bird lives in symbiosis with the hippopotamus.   这种鸟和河马是共生关系。</t>
+          <t>The syllogism was at the core of traditional deductive reasoning, where facts are determined by combiningexisting statements, in contrast to inductive reasoning where facts are determined by repeated observations.  从一般到个别的推理是传统演绎推理的核心由结合现存状态所确定，而归纳推理则由重复观测来确认。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3638,17 +3650,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>symmetry</t>
+          <t>symbiosis</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>n. 对称： balanced proportions</t>
+          <t>n. 共生关系： the living together in more or less intimate association or close union of two dissimilar</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>The building has perfect symmetry.   这栋房子是完美的对称构造。</t>
+          <t>The bird lives in symbiosis with the hippopotamus.   这种鸟和河马是共生关系。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3660,17 +3672,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>synchronous</t>
+          <t>symmetry</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>adj 同时期的，同相的： having identical period and phase</t>
+          <t>n. 对称： balanced proportions</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">The synchronous arrival of a baby sister and loss of a beloved grandmother strongly affected the girl.  </t>
+          <t>The building has perfect symmetry.   这栋房子是完美的对称构造。</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3682,17 +3694,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>synergic</t>
+          <t>synchronous</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>adj. 合作的： working together: cooperating</t>
+          <t>adj 同时期的，同相的： having identical period and phase</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>synergic muscles  协同肌肉</t>
+          <t xml:space="preserve">The synchronous arrival of a baby sister and loss of a beloved grandmother strongly affected the girl.  </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3704,17 +3716,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>synonymous</t>
+          <t>synergic</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>adj. 同义的： having the same or a similar meaning</t>
+          <t>adj. 合作的： working together: cooperating</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Paris has always been synonymous with elegance, luxury and style.   巴黎在人们心中就是优雅、奢侈、时尚的同义词。</t>
+          <t>synergic muscles  协同肌肉</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3726,17 +3738,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>synopsis</t>
+          <t>synonymous</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>n. 摘要，概要： a brief outline or general view; an abstract or a summary.</t>
+          <t>adj. 同义的： having the same or a similar meaning</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Just give me a synopsis of the movie.  把电影的大致情节给我说说就行。</t>
+          <t>Paris has always been synonymous with elegance, luxury and style.   巴黎在人们心中就是优雅、奢侈、时尚的同义词。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3748,17 +3760,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>synthesis</t>
+          <t>synopsis</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>n. 合成，综合： the combination of parts or elements so as to form a whole</t>
+          <t>n. 摘要，概要： a brief outline or general view; an abstract or a summary.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>a philosophy that is a kind of synthesis of several schools of Western and Eastern thought  哲 学 史 东 西方很多流派思想的综合</t>
+          <t>Just give me a synopsis of the movie.  把电影的大致情节给我说说就行。</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3770,17 +3782,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tacit</t>
+          <t>synthesis</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adj. 暗示的： implied or indicated (as by an act or by silence) but not actually expressed</t>
+          <t>n. 合成，综合： the combination of parts or elements so as to form a whole</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>tacit consent  默许</t>
+          <t>a philosophy that is a kind of synthesis of several schools of Western and Eastern thought  哲 学 史 东 西方很多流派思想的综合</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3792,15 +3804,19 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>taciturn</t>
+          <t>tacit</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>adj. 沉默寡言的，话少的： temperamentally disinclined to talk</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>adj. 暗示的： implied or indicated (as by an act or by silence) but not actually expressed</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>tacit consent  默许</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3810,19 +3826,15 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>tackle</t>
+          <t>taciturn</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>v. 着手处理： to start work on energetically</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Once I clean the kitchen, I think I'll tackle the bathroom.   等我把厨房收拾干净了，就去收拾浴室。</t>
-        </is>
-      </c>
+          <t>adj. 沉默寡言的，话少的： temperamentally disinclined to talk</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3832,17 +3844,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>tact</t>
+          <t>tackle</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>n. 机敏，精明，不冒犯： a keen sense of what to do or say in order to maintain good relations withothers or avoid offense</t>
+          <t>v. 着手处理： to start work on energetically</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>She talked to her neighbor with supreme tact.   她和邻居说话语调十分圆滑。</t>
+          <t>Once I clean the kitchen, I think I'll tackle the bathroom.   等我把厨房收拾干净了，就去收拾浴室。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3854,20 +3866,42 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>tact</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>n. 机敏，精明，不冒犯： a keen sense of what to do or say in order to maintain good relations withothers or avoid offense</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>She talked to her neighbor with supreme tact.   她和邻居说话语调十分圆滑。</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>tactile</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 有触觉的，能触知的： perceptible by touch: tangible</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>The thick brushstrokes give the painting a tactile quality.  粘稠的笔触给了这幅画一种厚实的感觉。</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
